--- a/test_契約管理/已完成/test_契約管理_随時対応（任意保険・自賠責保険更新）.xlsx
+++ b/test_契約管理/已完成/test_契約管理_随時対応（任意保険・自賠責保険更新）.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27150" windowHeight="13650" tabRatio="850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27150" windowHeight="13650" tabRatio="850"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="20" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13714" uniqueCount="1358">
   <si>
     <t>SQL</t>
   </si>
@@ -1757,7 +1757,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>勤務先備考</t>
     </r>
@@ -4054,7 +4054,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;!DOCTYPE html&gt;</t>
     </r>
@@ -4063,7 +4063,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4073,7 +4072,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;html&gt;</t>
     </r>
@@ -4082,7 +4080,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4092,7 +4089,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;head&gt;</t>
     </r>
@@ -4101,7 +4097,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4111,7 +4106,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;/head&gt;</t>
     </r>
@@ -4120,7 +4114,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4130,7 +4123,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;body&gt;</t>
     </r>
@@ -4139,7 +4131,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4149,7 +4140,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;p&gt;契約者００１ 様&lt;/p&gt;</t>
     </r>
@@ -4158,7 +4148,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4168,7 +4157,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;p&gt;平素は、ホーメストハイツ蒲田駐車場をご使用いただき誠にありがとうございます。&lt;br /&gt;株式会社○○○・○○○○○でございます。&lt;/p&gt;</t>
     </r>
@@ -4177,7 +4165,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4187,7 +4174,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;p&gt;ご提出いただいた&lt;span style="color: #ff0000;"&gt;自賠責保険&lt;/span&gt;の有効期限が月で満了を迎えます。&lt;/p&gt;</t>
     </r>
@@ -4196,7 +4182,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4206,7 +4191,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;p&gt;ついては、大変お手数ではございますが、&lt;br /&gt;2018年6月13日までに新しい保険証明書の写しを、&lt;br /&gt;メールまたはFAX、郵送等で弊社までご送付くださいますようお願い申し上げます。&lt;/p&gt;</t>
     </r>
@@ -4215,7 +4199,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4225,7 +4208,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;p&gt;※駐車場使用契約書第17条（特約事項）に記載のとおり、&lt;br /&gt;　契約時及び保険内容等の変更があった際には、&lt;br /&gt;　変更後の自動車保険証明書の写しをご提出いただく必要がございます&lt;/p&gt;</t>
     </r>
@@ -4234,7 +4216,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4244,7 +4225,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;p&gt;ご不明な点がございましたら、お気軽にお問い合せください。&lt;br /&gt;どうぞよろしくお願い申し上げます。&lt;/p&gt;</t>
     </r>
@@ -4253,7 +4233,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4263,7 +4242,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -4272,7 +4250,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;div style="border-top: 1px solid gray; border-bottom: 1px solid gray; padding: 15px 0px; float: left; min-width: 520px;"&gt;</t>
     </r>
@@ -4281,7 +4258,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4291,7 +4267,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">            </t>
     </r>
@@ -4300,7 +4275,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>株式会社○○○・○○○○○&lt;span style="margin-left: 50px;"&gt;担当：&lt;/span&gt;&lt;br /&gt;</t>
     </r>
@@ -4309,7 +4283,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4319,7 +4292,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">            </t>
     </r>
@@ -4328,7 +4300,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>email@example.com&lt;br /&gt;&lt;br /&gt;</t>
     </r>
@@ -4337,7 +4308,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4347,7 +4317,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">            </t>
     </r>
@@ -4356,7 +4325,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;span style="margin-left: 15px;"&gt;〒123-4567&lt;/span&gt;&lt;span style="margin-left: 30px;"&gt;東京都港区芝2丁目   ２－２－２○○ビル　１０階&lt;/span&gt;&lt;br /&gt;</t>
     </r>
@@ -4365,7 +4333,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4375,7 +4342,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">            </t>
     </r>
@@ -4384,7 +4350,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;span style="margin-left: 15px;"&gt;TEL.080-1234-5678&lt;/span&gt;&lt;span style="margin-left: 15px;"&gt;FAX.070-1234-5678&lt;/span&gt;&lt;br /&gt;</t>
     </r>
@@ -4393,7 +4358,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4403,7 +4367,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">            </t>
     </r>
@@ -4412,7 +4375,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;span style="margin-left: 15px;"&gt;営業時間：平日 9 時〜18 時（祝祭日・年末年始除く）&lt;/span&gt;</t>
     </r>
@@ -4421,7 +4383,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4431,7 +4392,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -4440,7 +4400,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;/div&gt;</t>
     </r>
@@ -4449,7 +4408,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4459,7 +4417,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -4468,7 +4425,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;div style="clear: both;"&gt; &lt;/div&gt;&lt;/body&gt;&lt;/html&gt;</t>
     </r>
@@ -4488,7 +4444,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;!DOCTYPE html&gt;</t>
     </r>
@@ -4497,7 +4453,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4507,7 +4462,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;html&gt;</t>
     </r>
@@ -4516,7 +4470,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4526,7 +4479,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;head&gt;</t>
     </r>
@@ -4535,7 +4487,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4545,7 +4496,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;/head&gt;</t>
     </r>
@@ -4554,7 +4504,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4564,7 +4513,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;body&gt;</t>
     </r>
@@ -4573,7 +4521,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4583,7 +4530,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;p&gt;契約者００１ 様&lt;/p&gt;</t>
     </r>
@@ -4592,7 +4538,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4602,7 +4547,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;p&gt;平素は、ホーメストハイツ蒲田駐車場をご使用いただき誠にありがとうございます。&lt;br /&gt;株式会社○○○・○○○○○でございます。&lt;/p&gt;</t>
     </r>
@@ -4611,7 +4555,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4621,7 +4564,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;p&gt;ご提出いただいた&lt;span style="color: #ff0000;"&gt;任意保険&lt;/span&gt;の有効期限が月で満了を迎えます。&lt;/p&gt;</t>
     </r>
@@ -4630,7 +4572,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4640,7 +4581,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;p&gt;ついては、大変お手数ではございますが、&lt;br /&gt;2018年6月13日までに新しい保険証明書の写しを、&lt;br /&gt;メールまたはFAX、郵送等で弊社までご送付くださいますようお願い申し上げます。&lt;/p&gt;</t>
     </r>
@@ -4649,7 +4589,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4659,7 +4598,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;p&gt;※駐車場使用契約書第17条（特約事項）に記載のとおり、&lt;br /&gt;　契約時及び保険内容等の変更があった際には、&lt;br /&gt;　変更後の自動車保険証明書の写しをご提出いただく必要がございます&lt;/p&gt;</t>
     </r>
@@ -4668,7 +4606,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4678,7 +4615,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;p&gt;ご不明な点がございましたら、お気軽にお問い合せください。&lt;br /&gt;どうぞよろしくお願い申し上げます。&lt;/p&gt;</t>
     </r>
@@ -4687,7 +4623,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4697,7 +4632,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -4706,7 +4640,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;div style="border-top: 1px solid gray; border-bottom: 1px solid gray; padding: 15px 0px; float: left; min-width: 520px;"&gt;</t>
     </r>
@@ -4715,7 +4648,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4725,7 +4657,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">            </t>
     </r>
@@ -4734,7 +4665,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>株式会社○○○・○○○○○&lt;span style="margin-left: 50px;"&gt;担当：&lt;/span&gt;&lt;br /&gt;</t>
     </r>
@@ -4743,7 +4673,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4753,7 +4682,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">            </t>
     </r>
@@ -4762,7 +4690,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>email@example.com&lt;br /&gt;&lt;br /&gt;</t>
     </r>
@@ -4771,7 +4698,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4781,7 +4707,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">            </t>
     </r>
@@ -4790,7 +4715,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;span style="margin-left: 15px;"&gt;〒123-4567&lt;/span&gt;&lt;span style="margin-left: 30px;"&gt;東京都港区芝2丁目   ２－２－２○○ビル　１０階&lt;/span&gt;&lt;br /&gt;</t>
     </r>
@@ -4799,7 +4723,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4809,7 +4732,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">            </t>
     </r>
@@ -4818,7 +4740,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;span style="margin-left: 15px;"&gt;TEL.080-1234-5678&lt;/span&gt;&lt;span style="margin-left: 15px;"&gt;FAX.070-1234-5678&lt;/span&gt;&lt;br /&gt;</t>
     </r>
@@ -4827,7 +4748,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4837,7 +4757,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">            </t>
     </r>
@@ -4846,7 +4765,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;span style="margin-left: 15px;"&gt;営業時間：平日 9 時〜18 時（祝祭日・年末年始除く）&lt;/span&gt;</t>
     </r>
@@ -4855,7 +4773,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4865,7 +4782,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -4874,7 +4790,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;/div&gt;</t>
     </r>
@@ -4883,7 +4798,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -4893,7 +4807,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -4902,7 +4815,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="0"/>
       </rPr>
       <t>&lt;div style="clear: both;"&gt; &lt;/div&gt;&lt;/body&gt;&lt;/html&gt;</t>
     </r>
@@ -4975,14 +4887,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5014,7 +4922,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Meiryo UI"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -5027,43 +4934,41 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -5077,7 +4982,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5092,14 +4997,14 @@
       <sz val="10"/>
       <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5112,166 +5017,34 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="45">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5286,19 +5059,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
+        <fgColor theme="7" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
+        <fgColor theme="9" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5322,7 +5095,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399914548173467"/>
+        <fgColor theme="8" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5334,19 +5107,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5364,180 +5137,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -5588,261 +5193,22 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5882,13 +5248,13 @@
     <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="10" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5898,13 +5264,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="12" fillId="11" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5932,7 +5298,7 @@
     <xf numFmtId="49" fontId="8" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="11" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5959,61 +5325,1008 @@
     <xf numFmtId="14" fontId="0" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="3">
+    <cellStyle name="標準 26" xfId="2"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="標準 26" xfId="14"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="143">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -6025,8 +6338,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="00FFFF99"/>
-      <color rgb="00FFFFCC"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -6318,16 +6631,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:IE367"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="Q311" sqref="Q311"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -6351,7 +6664,7 @@
     <col min="42" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" s="9" customFormat="1" ht="14.25" spans="1:2">
+    <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -6359,7 +6672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" ht="14.25" spans="1:2">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
@@ -6367,7 +6680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="14.25" spans="1:7">
+    <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="34" t="s">
         <v>0</v>
       </c>
@@ -6380,7 +6693,7 @@
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" s="9" customFormat="1" spans="1:7">
+    <row r="5" spans="1:7">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -6389,7 +6702,7 @@
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
     </row>
-    <row r="6" customFormat="1" ht="14.25" spans="1:2">
+    <row r="6" spans="1:7" customFormat="1" ht="14.25">
       <c r="A6" s="33" t="s">
         <v>0</v>
       </c>
@@ -6397,7 +6710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="14.25" spans="1:2">
+    <row r="7" spans="1:7" customFormat="1" ht="14.25">
       <c r="A7" s="33" t="s">
         <v>0</v>
       </c>
@@ -6405,7 +6718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="14.25" spans="1:2">
+    <row r="8" spans="1:7" customFormat="1" ht="14.25">
       <c r="A8" s="33" t="s">
         <v>0</v>
       </c>
@@ -6413,7 +6726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="14.25" spans="1:2">
+    <row r="9" spans="1:7" customFormat="1" ht="14.25">
       <c r="A9" s="33" t="s">
         <v>0</v>
       </c>
@@ -6421,7 +6734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="14.25" spans="1:2">
+    <row r="10" spans="1:7" customFormat="1" ht="14.25">
       <c r="A10" s="33" t="s">
         <v>0</v>
       </c>
@@ -6429,11 +6742,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="13.5" spans="1:2">
+    <row r="11" spans="1:7" customFormat="1" ht="13.5">
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
     </row>
-    <row r="12" customFormat="1" ht="14.25" spans="1:2">
+    <row r="12" spans="1:7" customFormat="1" ht="14.25">
       <c r="A12" s="33" t="s">
         <v>0</v>
       </c>
@@ -6441,7 +6754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="14.25" spans="1:2">
+    <row r="13" spans="1:7" customFormat="1" ht="14.25">
       <c r="A13" s="33" t="s">
         <v>0</v>
       </c>
@@ -6449,10 +6762,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="13.5" spans="2:2">
+    <row r="14" spans="1:7" customFormat="1" ht="13.5">
       <c r="B14" s="30"/>
     </row>
-    <row r="15" customFormat="1" ht="14.25" spans="1:2">
+    <row r="15" spans="1:7" customFormat="1" ht="14.25">
       <c r="A15" s="33" t="s">
         <v>0</v>
       </c>
@@ -6460,7 +6773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="1" ht="14.25" spans="1:2">
+    <row r="16" spans="1:7" customFormat="1" ht="14.25">
       <c r="A16" s="33" t="s">
         <v>0</v>
       </c>
@@ -6468,7 +6781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="14.25" spans="1:2">
+    <row r="17" spans="1:2" customFormat="1" ht="14.25">
       <c r="A17" s="33" t="s">
         <v>0</v>
       </c>
@@ -6476,7 +6789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="14.25" spans="1:2">
+    <row r="18" spans="1:2" customFormat="1" ht="14.25">
       <c r="A18" s="33" t="s">
         <v>0</v>
       </c>
@@ -6484,7 +6797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="1" ht="14.25" spans="1:2">
+    <row r="19" spans="1:2" customFormat="1" ht="14.25">
       <c r="A19" s="33" t="s">
         <v>0</v>
       </c>
@@ -6492,7 +6805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="14.25" spans="1:2">
+    <row r="20" spans="1:2" customFormat="1" ht="14.25">
       <c r="A20" s="33" t="s">
         <v>0</v>
       </c>
@@ -6500,8 +6813,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="13.5"/>
-    <row r="22" customFormat="1" ht="14.25" spans="1:2">
+    <row r="21" spans="1:2" customFormat="1" ht="13.5"/>
+    <row r="22" spans="1:2" customFormat="1" ht="14.25">
       <c r="A22" s="33" t="s">
         <v>0</v>
       </c>
@@ -6509,7 +6822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="14.25" spans="1:2">
+    <row r="23" spans="1:2" customFormat="1" ht="14.25">
       <c r="A23" s="33" t="s">
         <v>0</v>
       </c>
@@ -6517,7 +6830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="14.25" spans="1:2">
+    <row r="24" spans="1:2" customFormat="1" ht="14.25">
       <c r="A24" s="33" t="s">
         <v>0</v>
       </c>
@@ -6525,11 +6838,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="13.5" spans="1:2">
+    <row r="25" spans="1:2" customFormat="1" ht="13.5">
       <c r="A25" s="30"/>
       <c r="B25" s="30"/>
     </row>
-    <row r="26" customFormat="1" ht="14.25" spans="1:2">
+    <row r="26" spans="1:2" customFormat="1" ht="14.25">
       <c r="A26" s="33" t="s">
         <v>0</v>
       </c>
@@ -6537,7 +6850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" customFormat="1" ht="14.25" spans="1:2">
+    <row r="27" spans="1:2" customFormat="1" ht="14.25">
       <c r="A27" s="33" t="s">
         <v>0</v>
       </c>
@@ -6545,7 +6858,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" customFormat="1" ht="14.25" spans="1:2">
+    <row r="28" spans="1:2" customFormat="1" ht="14.25">
       <c r="A28" s="33" t="s">
         <v>0</v>
       </c>
@@ -6553,7 +6866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" customFormat="1" ht="14.25" spans="1:2">
+    <row r="29" spans="1:2" customFormat="1" ht="14.25">
       <c r="A29" s="33" t="s">
         <v>0</v>
       </c>
@@ -6561,11 +6874,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" customFormat="1" ht="13.5" spans="1:2">
+    <row r="30" spans="1:2" customFormat="1" ht="13.5">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
     </row>
-    <row r="31" customFormat="1" ht="14.25" spans="1:2">
+    <row r="31" spans="1:2" customFormat="1" ht="14.25">
       <c r="A31" s="33" t="s">
         <v>0</v>
       </c>
@@ -6573,7 +6886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="14.25" spans="1:2">
+    <row r="32" spans="1:2" customFormat="1" ht="14.25">
       <c r="A32" s="33" t="s">
         <v>0</v>
       </c>
@@ -6581,7 +6894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="14.25" spans="1:2">
+    <row r="33" spans="1:2" customFormat="1" ht="14.25">
       <c r="A33" s="33" t="s">
         <v>0</v>
       </c>
@@ -6589,7 +6902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" customFormat="1" ht="14.25" spans="1:2">
+    <row r="34" spans="1:2" customFormat="1" ht="14.25">
       <c r="A34" s="33" t="s">
         <v>0</v>
       </c>
@@ -6597,7 +6910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" customFormat="1" ht="14.25" spans="1:2">
+    <row r="35" spans="1:2" customFormat="1" ht="14.25">
       <c r="A35" s="33" t="s">
         <v>0</v>
       </c>
@@ -6605,7 +6918,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="14.25" spans="1:2">
+    <row r="36" spans="1:2" customFormat="1" ht="14.25">
       <c r="A36" s="33" t="s">
         <v>0</v>
       </c>
@@ -6613,7 +6926,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="14.25" spans="1:2">
+    <row r="37" spans="1:2" customFormat="1" ht="14.25">
       <c r="A37" s="33" t="s">
         <v>0</v>
       </c>
@@ -6621,7 +6934,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" customFormat="1" ht="14.25" spans="1:2">
+    <row r="38" spans="1:2" customFormat="1" ht="14.25">
       <c r="A38" s="33" t="s">
         <v>0</v>
       </c>
@@ -6629,7 +6942,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" customFormat="1" ht="14.25" spans="1:2">
+    <row r="39" spans="1:2" customFormat="1" ht="14.25">
       <c r="A39" s="33" t="s">
         <v>0</v>
       </c>
@@ -6637,7 +6950,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" customFormat="1" ht="14.25" spans="1:2">
+    <row r="40" spans="1:2" customFormat="1" ht="14.25">
       <c r="A40" s="33" t="s">
         <v>0</v>
       </c>
@@ -6645,7 +6958,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" customFormat="1" ht="14.25" spans="1:2">
+    <row r="41" spans="1:2" customFormat="1" ht="14.25">
       <c r="A41" s="33" t="s">
         <v>0</v>
       </c>
@@ -6653,7 +6966,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" customFormat="1" ht="14.25" spans="1:2">
+    <row r="42" spans="1:2" customFormat="1" ht="14.25">
       <c r="A42" s="33" t="s">
         <v>0</v>
       </c>
@@ -6661,7 +6974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" customFormat="1" ht="14.25" spans="1:2">
+    <row r="43" spans="1:2" customFormat="1" ht="14.25">
       <c r="A43" s="33" t="s">
         <v>0</v>
       </c>
@@ -6669,7 +6982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" customFormat="1" ht="14.25" spans="1:2">
+    <row r="44" spans="1:2" customFormat="1" ht="14.25">
       <c r="A44" s="33" t="s">
         <v>0</v>
       </c>
@@ -6677,7 +6990,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" customFormat="1" ht="14.25" spans="1:2">
+    <row r="45" spans="1:2" customFormat="1" ht="14.25">
       <c r="A45" s="33" t="s">
         <v>0</v>
       </c>
@@ -6685,7 +6998,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" customFormat="1" ht="14.25" spans="1:2">
+    <row r="46" spans="1:2" customFormat="1" ht="14.25">
       <c r="A46" s="33" t="s">
         <v>0</v>
       </c>
@@ -6693,7 +7006,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" customFormat="1" ht="14.25" spans="1:2">
+    <row r="47" spans="1:2" customFormat="1" ht="14.25">
       <c r="A47" s="33" t="s">
         <v>0</v>
       </c>
@@ -6701,7 +7014,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" customFormat="1" ht="14.25" spans="1:2">
+    <row r="48" spans="1:2" customFormat="1" ht="14.25">
       <c r="A48" s="33" t="s">
         <v>0</v>
       </c>
@@ -6709,7 +7022,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" customFormat="1" ht="14.25" spans="1:2">
+    <row r="49" spans="1:8" customFormat="1" ht="14.25">
       <c r="A49" s="33" t="s">
         <v>0</v>
       </c>
@@ -6717,7 +7030,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" customFormat="1" ht="14.25" spans="1:2">
+    <row r="50" spans="1:8" customFormat="1" ht="14.25">
       <c r="A50" s="33" t="s">
         <v>0</v>
       </c>
@@ -6725,7 +7038,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" customFormat="1" ht="14.25" spans="1:2">
+    <row r="51" spans="1:8" customFormat="1" ht="14.25">
       <c r="A51" s="33" t="s">
         <v>0</v>
       </c>
@@ -6733,7 +7046,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" customFormat="1" ht="14.25" spans="1:2">
+    <row r="52" spans="1:8" customFormat="1" ht="14.25">
       <c r="A52" s="33" t="s">
         <v>0</v>
       </c>
@@ -6741,7 +7054,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" customFormat="1" ht="14.25" spans="1:2">
+    <row r="53" spans="1:8" customFormat="1" ht="14.25">
       <c r="A53" s="33" t="s">
         <v>0</v>
       </c>
@@ -6749,7 +7062,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" customFormat="1" ht="14.25" spans="1:2">
+    <row r="54" spans="1:8" customFormat="1" ht="14.25">
       <c r="A54" s="33" t="s">
         <v>0</v>
       </c>
@@ -6757,7 +7070,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" customFormat="1" ht="14.25" spans="1:2">
+    <row r="55" spans="1:8" customFormat="1" ht="14.25">
       <c r="A55" s="33" t="s">
         <v>0</v>
       </c>
@@ -6765,7 +7078,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" customFormat="1" ht="14.25" spans="1:2">
+    <row r="56" spans="1:8" customFormat="1" ht="14.25">
       <c r="A56" s="33" t="s">
         <v>0</v>
       </c>
@@ -6773,7 +7086,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" customFormat="1" ht="14.25" spans="1:2">
+    <row r="57" spans="1:8" customFormat="1" ht="14.25">
       <c r="A57" s="33" t="s">
         <v>0</v>
       </c>
@@ -6781,13 +7094,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" customFormat="1" ht="13.5"/>
-    <row r="59" customFormat="1" ht="13.5"/>
-    <row r="60" customFormat="1" ht="13.5" spans="1:2">
+    <row r="58" spans="1:8" customFormat="1" ht="13.5"/>
+    <row r="59" spans="1:8" customFormat="1" ht="13.5"/>
+    <row r="60" spans="1:8" customFormat="1" ht="13.5">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
     </row>
-    <row r="61" customFormat="1" ht="14.25" spans="1:8">
+    <row r="61" spans="1:8" customFormat="1" ht="14.25">
       <c r="A61" s="33" t="s">
         <v>0</v>
       </c>
@@ -6800,7 +7113,7 @@
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" customFormat="1" ht="14.25" spans="1:8">
+    <row r="62" spans="1:8" customFormat="1" ht="14.25">
       <c r="A62" s="33" t="s">
         <v>0</v>
       </c>
@@ -6814,7 +7127,7 @@
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" customFormat="1" ht="14.25" spans="1:8">
+    <row r="63" spans="1:8" customFormat="1" ht="14.25">
       <c r="A63" s="33" t="s">
         <v>0</v>
       </c>
@@ -6828,7 +7141,7 @@
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" customFormat="1" ht="14.25" spans="1:8">
+    <row r="64" spans="1:8" customFormat="1" ht="14.25">
       <c r="A64" s="33" t="s">
         <v>0</v>
       </c>
@@ -6842,7 +7155,7 @@
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" customFormat="1" ht="13.5" spans="1:8">
+    <row r="65" spans="1:19" customFormat="1" ht="13.5">
       <c r="A65" s="30"/>
       <c r="C65" s="30"/>
       <c r="D65" s="30"/>
@@ -6851,10 +7164,8 @@
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A66" s="33" t="s">
-        <v>0</v>
-      </c>
+    <row r="66" spans="1:19" customFormat="1" ht="14.25">
+      <c r="A66" s="33"/>
       <c r="B66" t="s">
         <v>53</v>
       </c>
@@ -6865,7 +7176,7 @@
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" customFormat="1" ht="14.25" spans="1:8">
+    <row r="67" spans="1:19" customFormat="1" ht="14.25">
       <c r="A67" s="33" t="s">
         <v>0</v>
       </c>
@@ -6879,7 +7190,7 @@
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" customFormat="1" ht="14.25" spans="1:8">
+    <row r="68" spans="1:19" customFormat="1" ht="14.25">
       <c r="A68" s="33" t="s">
         <v>0</v>
       </c>
@@ -6893,7 +7204,7 @@
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" customFormat="1" ht="14.25" spans="1:8">
+    <row r="69" spans="1:19" customFormat="1" ht="14.25">
       <c r="A69" s="33" t="s">
         <v>0</v>
       </c>
@@ -6907,7 +7218,7 @@
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" customFormat="1" ht="14.25" spans="1:8">
+    <row r="70" spans="1:19" customFormat="1" ht="14.25">
       <c r="A70" s="33" t="s">
         <v>0</v>
       </c>
@@ -6921,7 +7232,7 @@
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" customFormat="1" ht="14.25" spans="1:2">
+    <row r="71" spans="1:19" customFormat="1" ht="14.25">
       <c r="A71" s="33" t="s">
         <v>0</v>
       </c>
@@ -6929,7 +7240,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" s="9" customFormat="1" spans="1:7">
+    <row r="72" spans="1:19">
       <c r="A72" s="30"/>
       <c r="B72" s="30"/>
       <c r="C72" s="30"/>
@@ -6938,7 +7249,7 @@
       <c r="F72" s="30"/>
       <c r="G72" s="30"/>
     </row>
-    <row r="73" s="9" customFormat="1" spans="1:7">
+    <row r="73" spans="1:19">
       <c r="A73" s="30"/>
       <c r="B73" s="30"/>
       <c r="C73" s="30"/>
@@ -6947,7 +7258,7 @@
       <c r="F73" s="30"/>
       <c r="G73" s="30"/>
     </row>
-    <row r="74" customFormat="1" ht="13.5" spans="1:7">
+    <row r="74" spans="1:19" customFormat="1" ht="13.5">
       <c r="A74" s="30"/>
       <c r="B74" s="30"/>
       <c r="C74" s="30"/>
@@ -6956,7 +7267,7 @@
       <c r="F74" s="30"/>
       <c r="G74" s="30"/>
     </row>
-    <row r="75" s="30" customFormat="1" ht="14.25" spans="1:2">
+    <row r="75" spans="1:19" s="30" customFormat="1" ht="14.25">
       <c r="A75" s="35" t="s">
         <v>59</v>
       </c>
@@ -6964,7 +7275,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" s="30" customFormat="1" spans="2:19">
+    <row r="76" spans="1:19" s="30" customFormat="1">
       <c r="B76" s="36" t="s">
         <v>61</v>
       </c>
@@ -7020,7 +7331,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="77" s="30" customFormat="1" spans="2:19">
+    <row r="77" spans="1:19" s="30" customFormat="1">
       <c r="B77" s="15" t="s">
         <v>63</v>
       </c>
@@ -7076,7 +7387,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" s="30" customFormat="1" spans="2:19">
+    <row r="78" spans="1:19" s="30" customFormat="1">
       <c r="B78" s="18" t="s">
         <v>81</v>
       </c>
@@ -7132,7 +7443,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" s="30" customFormat="1" spans="2:19">
+    <row r="79" spans="1:19" s="30" customFormat="1">
       <c r="B79" s="18" t="s">
         <v>87</v>
       </c>
@@ -7188,7 +7499,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" s="30" customFormat="1" spans="2:19">
+    <row r="80" spans="1:19" s="30" customFormat="1">
       <c r="B80" s="18" t="s">
         <v>90</v>
       </c>
@@ -7244,7 +7555,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" s="30" customFormat="1" spans="2:19">
+    <row r="81" spans="1:239" s="30" customFormat="1">
       <c r="B81" s="18" t="s">
         <v>93</v>
       </c>
@@ -7300,7 +7611,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" s="30" customFormat="1" spans="2:19">
+    <row r="82" spans="1:239" s="30" customFormat="1">
       <c r="B82" s="18" t="s">
         <v>97</v>
       </c>
@@ -7356,7 +7667,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" s="30" customFormat="1" spans="2:19">
+    <row r="83" spans="1:239" s="30" customFormat="1">
       <c r="B83" s="18" t="s">
         <v>100</v>
       </c>
@@ -7412,7 +7723,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" s="30" customFormat="1" spans="2:19">
+    <row r="84" spans="1:239" s="30" customFormat="1">
       <c r="B84" s="18" t="s">
         <v>102</v>
       </c>
@@ -7468,8 +7779,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" s="30" customFormat="1"/>
-    <row r="86" s="9" customFormat="1" spans="1:7">
+    <row r="85" spans="1:239" s="30" customFormat="1"/>
+    <row r="86" spans="1:239">
       <c r="A86" s="30"/>
       <c r="B86" s="30"/>
       <c r="C86" s="30"/>
@@ -7478,7 +7789,7 @@
       <c r="F86" s="30"/>
       <c r="G86" s="30"/>
     </row>
-    <row r="87" customFormat="1" ht="13.5" spans="1:7">
+    <row r="87" spans="1:239" customFormat="1" ht="13.5">
       <c r="A87" s="30"/>
       <c r="B87" s="30"/>
       <c r="C87" s="30"/>
@@ -7487,7 +7798,7 @@
       <c r="F87" s="30"/>
       <c r="G87" s="30"/>
     </row>
-    <row r="88" s="31" customFormat="1" ht="12.75" customHeight="1" spans="1:2">
+    <row r="88" spans="1:239" s="31" customFormat="1" ht="12.75" customHeight="1">
       <c r="A88" s="39" t="s">
         <v>59</v>
       </c>
@@ -7495,7 +7806,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" s="31" customFormat="1" ht="13.5" spans="2:71">
+    <row r="89" spans="1:239" s="31" customFormat="1" ht="13.5">
       <c r="B89" s="40" t="s">
         <v>106</v>
       </c>
@@ -7569,7 +7880,7 @@
       <c r="BR89" s="41"/>
       <c r="BS89" s="41"/>
     </row>
-    <row r="90" s="31" customFormat="1" ht="13.5" spans="1:74">
+    <row r="90" spans="1:239" s="31" customFormat="1" ht="13.5">
       <c r="A90" s="11"/>
       <c r="B90" s="42" t="s">
         <v>64</v>
@@ -7791,7 +8102,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="91" s="31" customFormat="1" ht="13.5" spans="1:239">
+    <row r="91" spans="1:239" s="31" customFormat="1" ht="13.5">
       <c r="A91" s="45"/>
       <c r="B91" s="20" t="s">
         <v>82</v>
@@ -8178,7 +8489,7 @@
       <c r="ID91" s="11"/>
       <c r="IE91" s="11"/>
     </row>
-    <row r="92" customFormat="1" ht="13.5" spans="1:239">
+    <row r="92" spans="1:239" customFormat="1" ht="13.5">
       <c r="A92" s="11"/>
       <c r="B92" s="20" t="s">
         <v>94</v>
@@ -8565,7 +8876,7 @@
       <c r="ID92" s="11"/>
       <c r="IE92" s="11"/>
     </row>
-    <row r="93" customFormat="1" ht="13.5" spans="1:239">
+    <row r="93" spans="1:239" customFormat="1" ht="13.5">
       <c r="A93" s="13"/>
       <c r="B93" s="20" t="s">
         <v>94</v>
@@ -8952,7 +9263,7 @@
       <c r="ID93" s="11"/>
       <c r="IE93" s="11"/>
     </row>
-    <row r="94" customFormat="1" ht="13.5" spans="1:239">
+    <row r="94" spans="1:239" customFormat="1" ht="13.5">
       <c r="A94" s="13"/>
       <c r="B94" s="20" t="s">
         <v>82</v>
@@ -9339,7 +9650,7 @@
       <c r="ID94" s="11"/>
       <c r="IE94" s="11"/>
     </row>
-    <row r="95" customFormat="1" ht="13.5" spans="1:239">
+    <row r="95" spans="1:239" customFormat="1" ht="13.5">
       <c r="A95" s="13"/>
       <c r="B95" s="20" t="s">
         <v>82</v>
@@ -9726,7 +10037,7 @@
       <c r="ID95" s="11"/>
       <c r="IE95" s="11"/>
     </row>
-    <row r="96" customFormat="1" ht="13.5" spans="1:239">
+    <row r="96" spans="1:239" customFormat="1" ht="13.5">
       <c r="A96" s="13"/>
       <c r="B96" s="20" t="s">
         <v>94</v>
@@ -10113,7 +10424,7 @@
       <c r="ID96" s="11"/>
       <c r="IE96" s="11"/>
     </row>
-    <row r="97" customFormat="1" ht="13.5" spans="1:239">
+    <row r="97" spans="1:239" customFormat="1" ht="13.5">
       <c r="A97" s="13"/>
       <c r="B97" s="20" t="s">
         <v>94</v>
@@ -10500,7 +10811,7 @@
       <c r="ID97" s="11"/>
       <c r="IE97" s="11"/>
     </row>
-    <row r="98" customFormat="1" ht="13.5" spans="1:239">
+    <row r="98" spans="1:239" customFormat="1" ht="13.5">
       <c r="A98" s="13"/>
       <c r="B98" s="20" t="s">
         <v>82</v>
@@ -10887,7 +11198,7 @@
       <c r="ID98" s="11"/>
       <c r="IE98" s="11"/>
     </row>
-    <row r="99" customFormat="1" ht="13.5" spans="1:7">
+    <row r="99" spans="1:239" customFormat="1" ht="13.5">
       <c r="A99" s="30"/>
       <c r="B99" s="30"/>
       <c r="C99" s="30"/>
@@ -10896,7 +11207,7 @@
       <c r="F99" s="30"/>
       <c r="G99" s="30"/>
     </row>
-    <row r="103" ht="14.25" spans="1:10">
+    <row r="103" spans="1:239" ht="14.25">
       <c r="A103" s="35" t="s">
         <v>59</v>
       </c>
@@ -10912,7 +11223,7 @@
       <c r="I103" s="30"/>
       <c r="J103" s="30"/>
     </row>
-    <row r="104" spans="2:10">
+    <row r="104" spans="1:239">
       <c r="B104" s="36" t="s">
         <v>226</v>
       </c>
@@ -10941,7 +11252,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:239">
       <c r="A105" s="30"/>
       <c r="B105" s="15" t="s">
         <v>63</v>
@@ -10971,7 +11282,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:239">
       <c r="A106" s="30"/>
       <c r="B106" s="18" t="s">
         <v>81</v>
@@ -11001,7 +11312,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:239">
       <c r="A107" s="30"/>
       <c r="B107" s="18" t="s">
         <v>87</v>
@@ -11031,7 +11342,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:239">
       <c r="A108" s="30"/>
       <c r="B108" s="18" t="s">
         <v>90</v>
@@ -11061,7 +11372,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:239">
       <c r="A109" s="30"/>
       <c r="B109" s="18" t="s">
         <v>93</v>
@@ -11091,7 +11402,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:239">
       <c r="A110" s="30"/>
       <c r="B110" s="18" t="s">
         <v>97</v>
@@ -11121,7 +11432,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:239">
       <c r="A111" s="30"/>
       <c r="B111" s="18" t="s">
         <v>100</v>
@@ -11151,7 +11462,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:239">
       <c r="A112" s="30"/>
       <c r="B112" s="18" t="s">
         <v>102</v>
@@ -11181,7 +11492,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="115" s="30" customFormat="1" ht="14.25" spans="1:2">
+    <row r="115" spans="1:35" s="30" customFormat="1" ht="14.25">
       <c r="A115" s="35" t="s">
         <v>59</v>
       </c>
@@ -11189,7 +11500,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="116" s="30" customFormat="1" spans="2:13">
+    <row r="116" spans="1:35" s="30" customFormat="1">
       <c r="B116" s="36" t="s">
         <v>234</v>
       </c>
@@ -11227,7 +11538,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="117" s="30" customFormat="1" spans="2:13">
+    <row r="117" spans="1:35" s="30" customFormat="1">
       <c r="B117" s="15" t="s">
         <v>63</v>
       </c>
@@ -11265,7 +11576,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="118" s="30" customFormat="1" spans="2:13">
+    <row r="118" spans="1:35" s="30" customFormat="1">
       <c r="B118" s="18" t="s">
         <v>81</v>
       </c>
@@ -11303,7 +11614,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="119" s="30" customFormat="1" spans="2:13">
+    <row r="119" spans="1:35" s="30" customFormat="1">
       <c r="B119" s="18" t="s">
         <v>87</v>
       </c>
@@ -11341,7 +11652,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="120" s="30" customFormat="1" spans="2:13">
+    <row r="120" spans="1:35" s="30" customFormat="1">
       <c r="B120" s="18" t="s">
         <v>90</v>
       </c>
@@ -11379,8 +11690,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="121" s="30" customFormat="1"/>
-    <row r="124" ht="13.5" spans="2:35">
+    <row r="121" spans="1:35" s="30" customFormat="1"/>
+    <row r="124" spans="1:35" ht="13.5">
       <c r="B124" s="13"/>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
@@ -11416,7 +11727,7 @@
       <c r="AH124" s="11"/>
       <c r="AI124" s="11"/>
     </row>
-    <row r="125" ht="13.5" spans="2:35">
+    <row r="125" spans="1:35" ht="13.5">
       <c r="B125" s="10"/>
       <c r="C125" s="11"/>
       <c r="D125" s="11"/>
@@ -11452,7 +11763,7 @@
       <c r="AH125" s="11"/>
       <c r="AI125" s="11"/>
     </row>
-    <row r="126" ht="14.25" spans="1:35">
+    <row r="126" spans="1:35" ht="14.25">
       <c r="A126" s="35" t="s">
         <v>59</v>
       </c>
@@ -11493,7 +11804,7 @@
       <c r="AH126" s="11"/>
       <c r="AI126" s="11"/>
     </row>
-    <row r="127" ht="13.5" spans="2:35">
+    <row r="127" spans="1:35" ht="13.5">
       <c r="B127" s="36" t="s">
         <v>249</v>
       </c>
@@ -11531,7 +11842,7 @@
       <c r="AH127" s="11"/>
       <c r="AI127" s="11"/>
     </row>
-    <row r="128" s="9" customFormat="1" ht="13.5" spans="2:35">
+    <row r="128" spans="1:35" ht="13.5">
       <c r="B128" s="16" t="s">
         <v>64</v>
       </c>
@@ -11581,7 +11892,7 @@
       <c r="AH128" s="11"/>
       <c r="AI128" s="11"/>
     </row>
-    <row r="129" s="9" customFormat="1" ht="13.5" spans="2:35">
+    <row r="129" spans="1:36" ht="13.5">
       <c r="B129" s="18" t="s">
         <v>82</v>
       </c>
@@ -11631,7 +11942,7 @@
       <c r="AH129" s="11"/>
       <c r="AI129" s="11"/>
     </row>
-    <row r="130" ht="13.5" spans="2:35">
+    <row r="130" spans="1:36" ht="13.5">
       <c r="B130" s="13"/>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
@@ -11667,7 +11978,7 @@
       <c r="AH130" s="11"/>
       <c r="AI130" s="11"/>
     </row>
-    <row r="131" ht="13.5" spans="2:35">
+    <row r="131" spans="1:36" ht="13.5">
       <c r="B131" s="10"/>
       <c r="C131" s="11"/>
       <c r="D131" s="11"/>
@@ -11703,7 +12014,7 @@
       <c r="AH131" s="11"/>
       <c r="AI131" s="11"/>
     </row>
-    <row r="132" ht="13.5" spans="2:35">
+    <row r="132" spans="1:36" ht="13.5">
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
@@ -11739,7 +12050,7 @@
       <c r="AH132" s="11"/>
       <c r="AI132" s="11"/>
     </row>
-    <row r="134" ht="14.25" spans="1:2">
+    <row r="134" spans="1:36" ht="14.25">
       <c r="A134" s="12" t="s">
         <v>59</v>
       </c>
@@ -11747,13 +12058,13 @@
         <v>252</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:36">
       <c r="A135" s="14"/>
       <c r="B135" s="10" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="136" s="9" customFormat="1" spans="2:36">
+    <row r="136" spans="1:36">
       <c r="B136" s="15" t="s">
         <v>63</v>
       </c>
@@ -11858,7 +12169,7 @@
       </c>
       <c r="AJ136" s="16"/>
     </row>
-    <row r="137" s="9" customFormat="1" spans="2:35">
+    <row r="137" spans="1:36">
       <c r="B137" s="18">
         <v>1</v>
       </c>
@@ -11962,7 +12273,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="138" s="9" customFormat="1" spans="2:35">
+    <row r="138" spans="1:36">
       <c r="B138" s="18">
         <v>2</v>
       </c>
@@ -12066,7 +12377,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="139" s="9" customFormat="1" spans="2:35">
+    <row r="139" spans="1:36">
       <c r="B139" s="18">
         <v>3</v>
       </c>
@@ -12170,7 +12481,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="140" s="9" customFormat="1" spans="2:35">
+    <row r="140" spans="1:36">
       <c r="B140" s="18">
         <v>4</v>
       </c>
@@ -12274,7 +12585,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="141" s="9" customFormat="1" spans="2:35">
+    <row r="141" spans="1:36">
       <c r="B141" s="18">
         <v>5</v>
       </c>
@@ -12378,7 +12689,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="142" s="9" customFormat="1" spans="2:35">
+    <row r="142" spans="1:36">
       <c r="B142" s="18">
         <v>6</v>
       </c>
@@ -12482,7 +12793,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="143" s="9" customFormat="1" spans="2:35">
+    <row r="143" spans="1:36">
       <c r="B143" s="18">
         <v>7</v>
       </c>
@@ -12586,7 +12897,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="144" s="9" customFormat="1" spans="2:35">
+    <row r="144" spans="1:36">
       <c r="B144" s="18">
         <v>8</v>
       </c>
@@ -12690,7 +13001,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="145" s="9" customFormat="1" spans="2:35">
+    <row r="145" spans="1:35">
       <c r="B145" s="18">
         <v>9</v>
       </c>
@@ -12794,7 +13105,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="146" s="9" customFormat="1" spans="2:35">
+    <row r="146" spans="1:35">
       <c r="B146" s="18">
         <v>10</v>
       </c>
@@ -12898,7 +13209,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="147" s="9" customFormat="1" spans="2:35">
+    <row r="147" spans="1:35">
       <c r="B147" s="18">
         <v>11</v>
       </c>
@@ -13002,7 +13313,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="148" s="9" customFormat="1" spans="2:35">
+    <row r="148" spans="1:35">
       <c r="B148" s="18">
         <v>12</v>
       </c>
@@ -13106,7 +13417,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="149" s="9" customFormat="1" spans="2:35">
+    <row r="149" spans="1:35">
       <c r="B149" s="18">
         <v>13</v>
       </c>
@@ -13210,7 +13521,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="150" s="9" customFormat="1" spans="2:35">
+    <row r="150" spans="1:35">
       <c r="B150" s="18">
         <v>14</v>
       </c>
@@ -13314,7 +13625,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="151" s="9" customFormat="1" spans="2:35">
+    <row r="151" spans="1:35">
       <c r="B151" s="18">
         <v>15</v>
       </c>
@@ -13418,7 +13729,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="152" spans="2:35">
+    <row r="152" spans="1:35">
       <c r="B152" s="18">
         <v>390</v>
       </c>
@@ -13522,7 +13833,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="153" ht="13.5" spans="2:35">
+    <row r="153" spans="1:35" ht="13.5">
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
@@ -13558,7 +13869,7 @@
       <c r="AH153" s="11"/>
       <c r="AI153" s="11"/>
     </row>
-    <row r="154" ht="13.5" spans="2:35">
+    <row r="154" spans="1:35" ht="13.5">
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
@@ -13594,7 +13905,7 @@
       <c r="AH154" s="11"/>
       <c r="AI154" s="11"/>
     </row>
-    <row r="155" ht="13.5" spans="2:35">
+    <row r="155" spans="1:35" ht="13.5">
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
@@ -13630,7 +13941,7 @@
       <c r="AH155" s="11"/>
       <c r="AI155" s="11"/>
     </row>
-    <row r="156" ht="13.5" spans="2:35">
+    <row r="156" spans="1:35" ht="13.5">
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
@@ -13666,7 +13977,7 @@
       <c r="AH156" s="11"/>
       <c r="AI156" s="11"/>
     </row>
-    <row r="157" ht="13.5" spans="2:35">
+    <row r="157" spans="1:35" ht="13.5">
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
@@ -13702,7 +14013,7 @@
       <c r="AH157" s="11"/>
       <c r="AI157" s="11"/>
     </row>
-    <row r="158" ht="13.5" spans="2:35">
+    <row r="158" spans="1:35" ht="13.5">
       <c r="B158" s="13"/>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
@@ -13738,7 +14049,7 @@
       <c r="AH158" s="11"/>
       <c r="AI158" s="11"/>
     </row>
-    <row r="159" ht="14.25" spans="1:35">
+    <row r="159" spans="1:35" ht="14.25">
       <c r="A159" s="12" t="s">
         <v>59</v>
       </c>
@@ -13779,7 +14090,7 @@
       <c r="AH159" s="11"/>
       <c r="AI159" s="11"/>
     </row>
-    <row r="160" ht="13.5" spans="1:35">
+    <row r="160" spans="1:35" ht="13.5">
       <c r="A160" s="14"/>
       <c r="B160" s="10" t="s">
         <v>283</v>
@@ -13818,7 +14129,7 @@
       <c r="AH160" s="11"/>
       <c r="AI160" s="11"/>
     </row>
-    <row r="161" ht="13.5" spans="1:239">
+    <row r="161" spans="1:239" ht="13.5">
       <c r="A161" s="11"/>
       <c r="B161" s="15" t="s">
         <v>107</v>
@@ -14535,7 +14846,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="162" ht="13.5" spans="1:239">
+    <row r="162" spans="1:239" ht="13.5">
       <c r="A162" s="11"/>
       <c r="B162" s="18">
         <v>49</v>
@@ -15252,7 +15563,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="163" ht="13.5" spans="1:239">
+    <row r="163" spans="1:239" ht="13.5">
       <c r="A163" s="11"/>
       <c r="B163" s="18">
         <v>50</v>
@@ -15969,7 +16280,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="164" ht="13.5" spans="1:239">
+    <row r="164" spans="1:239" ht="13.5">
       <c r="A164" s="11"/>
       <c r="B164" s="18">
         <v>51</v>
@@ -16686,7 +16997,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="165" ht="13.5" spans="1:239">
+    <row r="165" spans="1:239" ht="13.5">
       <c r="A165" s="11"/>
       <c r="B165" s="18">
         <v>52</v>
@@ -17403,7 +17714,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="166" ht="13.5" spans="1:239">
+    <row r="166" spans="1:239" ht="13.5">
       <c r="A166" s="11"/>
       <c r="B166" s="18">
         <v>53</v>
@@ -18120,7 +18431,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="167" ht="13.5" spans="1:239">
+    <row r="167" spans="1:239" ht="13.5">
       <c r="A167" s="11"/>
       <c r="B167" s="18">
         <v>54</v>
@@ -18837,7 +19148,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="168" ht="13.5" spans="1:239">
+    <row r="168" spans="1:239" ht="13.5">
       <c r="A168" s="11"/>
       <c r="B168" s="18">
         <v>55</v>
@@ -19554,7 +19865,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="169" ht="13.5" spans="1:239">
+    <row r="169" spans="1:239" ht="13.5">
       <c r="A169" s="11"/>
       <c r="B169" s="18">
         <v>56</v>
@@ -20271,7 +20582,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="170" ht="13.5" spans="1:239">
+    <row r="170" spans="1:239" ht="13.5">
       <c r="A170" s="11"/>
       <c r="B170" s="18">
         <v>57</v>
@@ -20988,7 +21299,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="171" ht="13.5" spans="1:239">
+    <row r="171" spans="1:239" ht="13.5">
       <c r="A171" s="11"/>
       <c r="B171" s="18">
         <v>58</v>
@@ -21705,7 +22016,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="172" ht="13.5" spans="1:239">
+    <row r="172" spans="1:239" ht="13.5">
       <c r="A172" s="11"/>
       <c r="B172" s="18">
         <v>59</v>
@@ -22422,7 +22733,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="173" ht="13.5" spans="1:239">
+    <row r="173" spans="1:239" ht="13.5">
       <c r="A173" s="11"/>
       <c r="B173" s="18">
         <v>60</v>
@@ -23139,7 +23450,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="174" ht="13.5" spans="1:239">
+    <row r="174" spans="1:239" ht="13.5">
       <c r="A174" s="11"/>
       <c r="B174" s="18">
         <v>61</v>
@@ -23856,7 +24167,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="175" ht="13.5" spans="1:239">
+    <row r="175" spans="1:239" ht="13.5">
       <c r="A175" s="11"/>
       <c r="B175" s="18">
         <v>62</v>
@@ -24573,7 +24884,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="176" ht="13.5" spans="1:239">
+    <row r="176" spans="1:239" ht="13.5">
       <c r="A176" s="11"/>
       <c r="B176" s="18">
         <v>63</v>
@@ -25290,7 +25601,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="177" ht="13.5" spans="1:239">
+    <row r="177" spans="1:239" ht="13.5">
       <c r="A177" s="11"/>
       <c r="B177" s="18">
         <v>65</v>
@@ -26007,7 +26318,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="178" ht="13.5" spans="1:239">
+    <row r="178" spans="1:239" ht="13.5">
       <c r="A178" s="11"/>
       <c r="B178" s="18">
         <v>66</v>
@@ -26724,7 +27035,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="179" ht="13.5" spans="1:239">
+    <row r="179" spans="1:239" ht="13.5">
       <c r="A179" s="11"/>
       <c r="B179" s="18">
         <v>67</v>
@@ -27441,7 +27752,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="180" ht="13.5" spans="1:239">
+    <row r="180" spans="1:239" ht="13.5">
       <c r="A180" s="11"/>
       <c r="B180" s="18">
         <v>68</v>
@@ -28158,7 +28469,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="181" ht="13.5" spans="1:239">
+    <row r="181" spans="1:239" ht="13.5">
       <c r="A181" s="11"/>
       <c r="B181" s="18">
         <v>69</v>
@@ -28875,7 +29186,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="182" ht="13.5" spans="1:239">
+    <row r="182" spans="1:239" ht="13.5">
       <c r="A182" s="11"/>
       <c r="B182" s="18">
         <v>70</v>
@@ -29592,7 +29903,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="183" ht="13.5" spans="1:239">
+    <row r="183" spans="1:239" ht="13.5">
       <c r="A183" s="11"/>
       <c r="B183" s="18">
         <v>71</v>
@@ -30309,7 +30620,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="184" ht="13.5" spans="1:239">
+    <row r="184" spans="1:239" ht="13.5">
       <c r="A184" s="11"/>
       <c r="B184" s="18">
         <v>72</v>
@@ -31026,7 +31337,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="185" ht="13.5" spans="1:239">
+    <row r="185" spans="1:239" ht="13.5">
       <c r="A185" s="11"/>
       <c r="B185" s="18">
         <v>73</v>
@@ -31743,7 +32054,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="186" ht="13.5" spans="1:239">
+    <row r="186" spans="1:239" ht="13.5">
       <c r="A186" s="11"/>
       <c r="B186" s="18">
         <v>74</v>
@@ -32460,7 +32771,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="187" ht="13.5" spans="1:239">
+    <row r="187" spans="1:239" ht="13.5">
       <c r="A187" s="11"/>
       <c r="B187" s="18">
         <v>75</v>
@@ -33177,7 +33488,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="188" ht="13.5" spans="1:239">
+    <row r="188" spans="1:239" ht="13.5">
       <c r="A188" s="11"/>
       <c r="B188" s="18">
         <v>76</v>
@@ -33894,7 +34205,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="189" ht="13.5" spans="1:239">
+    <row r="189" spans="1:239" ht="13.5">
       <c r="A189" s="11"/>
       <c r="B189" s="18">
         <v>77</v>
@@ -34611,7 +34922,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="190" ht="13.5" spans="1:239">
+    <row r="190" spans="1:239" ht="13.5">
       <c r="A190" s="11"/>
       <c r="B190" s="18">
         <v>78</v>
@@ -35328,7 +35639,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="191" ht="13.5" spans="1:239">
+    <row r="191" spans="1:239" ht="13.5">
       <c r="A191" s="11"/>
       <c r="B191" s="18">
         <v>79</v>
@@ -36045,7 +36356,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="192" ht="13.5" spans="1:239">
+    <row r="192" spans="1:239" ht="13.5">
       <c r="A192" s="11"/>
       <c r="B192" s="18">
         <v>80</v>
@@ -36762,7 +37073,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="193" ht="13.5" spans="2:104">
+    <row r="193" spans="1:148" ht="13.5">
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
@@ -36799,7 +37110,7 @@
       <c r="AI193" s="11"/>
       <c r="CZ193" s="11"/>
     </row>
-    <row r="194" ht="13.5" spans="2:35">
+    <row r="194" spans="1:148" ht="13.5">
       <c r="B194" s="13"/>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
@@ -36835,7 +37146,7 @@
       <c r="AH194" s="11"/>
       <c r="AI194" s="11"/>
     </row>
-    <row r="195" ht="13.5" spans="2:34">
+    <row r="195" spans="1:148" ht="13.5">
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
@@ -36870,7 +37181,7 @@
       <c r="AG195" s="11"/>
       <c r="AH195" s="11"/>
     </row>
-    <row r="196" ht="13.5" spans="2:34">
+    <row r="196" spans="1:148" ht="13.5">
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
@@ -36905,7 +37216,7 @@
       <c r="AG196" s="11"/>
       <c r="AH196" s="11"/>
     </row>
-    <row r="197" ht="13.5" spans="2:34">
+    <row r="197" spans="1:148" ht="13.5">
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
@@ -36940,7 +37251,7 @@
       <c r="AG197" s="11"/>
       <c r="AH197" s="11"/>
     </row>
-    <row r="198" ht="13.5" spans="2:34">
+    <row r="198" spans="1:148" ht="13.5">
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
@@ -36975,7 +37286,7 @@
       <c r="AG198" s="11"/>
       <c r="AH198" s="11"/>
     </row>
-    <row r="199" ht="14.25" spans="1:34">
+    <row r="199" spans="1:148" ht="14.25">
       <c r="A199" s="12" t="s">
         <v>59</v>
       </c>
@@ -37015,13 +37326,13 @@
       <c r="AG199" s="11"/>
       <c r="AH199" s="11"/>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:148">
       <c r="A200" s="14"/>
       <c r="B200" s="10" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="201" spans="2:148">
+    <row r="201" spans="1:148">
       <c r="B201" s="16" t="s">
         <v>64</v>
       </c>
@@ -37450,7 +37761,7 @@
       <c r="EQ201" s="16"/>
       <c r="ER201" s="16"/>
     </row>
-    <row r="202" spans="2:141">
+    <row r="202" spans="1:148">
       <c r="B202" s="18" t="s">
         <v>978</v>
       </c>
@@ -37868,7 +38179,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="203" spans="2:141">
+    <row r="203" spans="1:148">
       <c r="B203" s="18" t="s">
         <v>990</v>
       </c>
@@ -38288,7 +38599,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="204" spans="2:141">
+    <row r="204" spans="1:148">
       <c r="B204" s="18" t="s">
         <v>996</v>
       </c>
@@ -38706,7 +39017,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="205" spans="2:141">
+    <row r="205" spans="1:148">
       <c r="B205" s="18" t="s">
         <v>996</v>
       </c>
@@ -39124,7 +39435,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="206" spans="2:141">
+    <row r="206" spans="1:148">
       <c r="B206" s="18" t="s">
         <v>996</v>
       </c>
@@ -39542,7 +39853,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="207" spans="2:141">
+    <row r="207" spans="1:148">
       <c r="B207" s="18" t="s">
         <v>996</v>
       </c>
@@ -39960,7 +40271,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="208" spans="2:141">
+    <row r="208" spans="1:148">
       <c r="B208" s="18" t="s">
         <v>996</v>
       </c>
@@ -40378,7 +40689,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="209" spans="2:141">
+    <row r="209" spans="2:146">
       <c r="B209" s="18" t="s">
         <v>996</v>
       </c>
@@ -40796,7 +41107,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="210" s="32" customFormat="1" ht="13.5" spans="2:146">
+    <row r="210" spans="2:146" s="32" customFormat="1" ht="13.5">
       <c r="B210" s="18" t="s">
         <v>996</v>
       </c>
@@ -41219,7 +41530,7 @@
       <c r="EO210" s="9"/>
       <c r="EP210" s="9"/>
     </row>
-    <row r="211" s="32" customFormat="1" ht="13.5" spans="2:146">
+    <row r="211" spans="2:146" s="32" customFormat="1" ht="13.5">
       <c r="B211" s="18" t="s">
         <v>996</v>
       </c>
@@ -41642,7 +41953,7 @@
       <c r="EO211" s="9"/>
       <c r="EP211" s="9"/>
     </row>
-    <row r="212" s="32" customFormat="1" ht="13.5" spans="2:146">
+    <row r="212" spans="2:146" s="32" customFormat="1" ht="13.5">
       <c r="B212" s="18" t="s">
         <v>996</v>
       </c>
@@ -42065,7 +42376,7 @@
       <c r="EO212" s="9"/>
       <c r="EP212" s="9"/>
     </row>
-    <row r="213" s="32" customFormat="1" ht="13.5" spans="2:146">
+    <row r="213" spans="2:146" s="32" customFormat="1" ht="13.5">
       <c r="B213" s="18" t="s">
         <v>996</v>
       </c>
@@ -42488,7 +42799,7 @@
       <c r="EO213" s="9"/>
       <c r="EP213" s="9"/>
     </row>
-    <row r="214" s="32" customFormat="1" ht="13.5" spans="2:146">
+    <row r="214" spans="2:146" s="32" customFormat="1" ht="13.5">
       <c r="B214" s="18" t="s">
         <v>996</v>
       </c>
@@ -42911,7 +43222,7 @@
       <c r="EO214" s="9"/>
       <c r="EP214" s="9"/>
     </row>
-    <row r="215" s="32" customFormat="1" ht="13.5" spans="2:146">
+    <row r="215" spans="2:146" s="32" customFormat="1" ht="13.5">
       <c r="B215" s="18" t="s">
         <v>996</v>
       </c>
@@ -43338,7 +43649,7 @@
       <c r="EO215" s="9"/>
       <c r="EP215" s="9"/>
     </row>
-    <row r="216" s="32" customFormat="1" ht="13.5" spans="2:146">
+    <row r="216" spans="2:146" s="32" customFormat="1" ht="13.5">
       <c r="B216" s="18" t="s">
         <v>996</v>
       </c>
@@ -43761,7 +44072,7 @@
       <c r="EO216" s="9"/>
       <c r="EP216" s="9"/>
     </row>
-    <row r="217" s="32" customFormat="1" ht="13.5" spans="2:146">
+    <row r="217" spans="2:146" s="32" customFormat="1" ht="13.5">
       <c r="B217" s="18" t="s">
         <v>996</v>
       </c>
@@ -44184,7 +44495,7 @@
       <c r="EO217" s="9"/>
       <c r="EP217" s="9"/>
     </row>
-    <row r="218" s="32" customFormat="1" ht="13.5" spans="2:146">
+    <row r="218" spans="2:146" s="32" customFormat="1" ht="13.5">
       <c r="B218" s="18" t="s">
         <v>996</v>
       </c>
@@ -44607,7 +44918,7 @@
       <c r="EO218" s="9"/>
       <c r="EP218" s="9"/>
     </row>
-    <row r="219" s="32" customFormat="1" ht="13.5" spans="2:146">
+    <row r="219" spans="2:146" s="32" customFormat="1" ht="13.5">
       <c r="B219" s="18" t="s">
         <v>996</v>
       </c>
@@ -45030,7 +45341,7 @@
       <c r="EO219" s="9"/>
       <c r="EP219" s="9"/>
     </row>
-    <row r="220" s="32" customFormat="1" ht="13.5" spans="2:146">
+    <row r="220" spans="2:146" s="32" customFormat="1" ht="13.5">
       <c r="B220" s="18" t="s">
         <v>996</v>
       </c>
@@ -45453,7 +45764,7 @@
       <c r="EO220" s="9"/>
       <c r="EP220" s="9"/>
     </row>
-    <row r="221" s="32" customFormat="1" ht="13.5" spans="2:146">
+    <row r="221" spans="2:146" s="32" customFormat="1" ht="13.5">
       <c r="B221" s="18" t="s">
         <v>996</v>
       </c>
@@ -45876,7 +46187,7 @@
       <c r="EO221" s="9"/>
       <c r="EP221" s="9"/>
     </row>
-    <row r="222" s="32" customFormat="1" ht="13.5" spans="2:146">
+    <row r="222" spans="2:146" s="32" customFormat="1" ht="13.5">
       <c r="B222" s="18" t="s">
         <v>996</v>
       </c>
@@ -46299,7 +46610,7 @@
       <c r="EO222" s="9"/>
       <c r="EP222" s="9"/>
     </row>
-    <row r="228" ht="14.25" spans="1:131">
+    <row r="228" spans="1:131" ht="14.25">
       <c r="A228" s="12" t="s">
         <v>59</v>
       </c>
@@ -46308,13 +46619,13 @@
       </c>
       <c r="EA228" s="22"/>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:131">
       <c r="A229" s="14"/>
       <c r="B229" s="10" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="230" s="22" customFormat="1" ht="12.75" spans="2:33">
+    <row r="230" spans="1:131" s="22" customFormat="1" ht="12.75">
       <c r="B230" s="15" t="s">
         <v>63</v>
       </c>
@@ -46412,7 +46723,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="231" s="22" customFormat="1" ht="12.75" spans="2:33">
+    <row r="231" spans="1:131" s="22" customFormat="1" ht="12.75">
       <c r="B231" s="18">
         <v>1</v>
       </c>
@@ -46510,7 +46821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" s="22" customFormat="1" ht="12.75" spans="2:33">
+    <row r="232" spans="1:131" s="22" customFormat="1" ht="12.75">
       <c r="B232" s="18">
         <v>2</v>
       </c>
@@ -46608,7 +46919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" s="22" customFormat="1" ht="12.75" spans="2:33">
+    <row r="233" spans="1:131" s="22" customFormat="1" ht="12.75">
       <c r="B233" s="18">
         <v>101</v>
       </c>
@@ -46706,7 +47017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" s="22" customFormat="1" ht="12.75" spans="2:33">
+    <row r="234" spans="1:131" s="22" customFormat="1" ht="12.75">
       <c r="B234" s="18">
         <v>102</v>
       </c>
@@ -46804,7 +47115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" s="22" customFormat="1" ht="12.75" spans="2:33">
+    <row r="235" spans="1:131" s="22" customFormat="1" ht="12.75">
       <c r="B235" s="18">
         <v>103</v>
       </c>
@@ -46902,7 +47213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" s="22" customFormat="1" ht="12.75" spans="2:33">
+    <row r="236" spans="1:131" s="22" customFormat="1" ht="12.75">
       <c r="B236" s="18">
         <v>104</v>
       </c>
@@ -47000,7 +47311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" s="22" customFormat="1" ht="12.75" spans="2:33">
+    <row r="237" spans="1:131" s="22" customFormat="1" ht="12.75">
       <c r="B237" s="18">
         <v>105</v>
       </c>
@@ -47098,7 +47409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" s="22" customFormat="1" ht="12.75" spans="2:33">
+    <row r="238" spans="1:131" s="22" customFormat="1" ht="12.75">
       <c r="B238" s="18">
         <v>106</v>
       </c>
@@ -47196,7 +47507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" s="22" customFormat="1" ht="12.75" spans="2:33">
+    <row r="239" spans="1:131" s="22" customFormat="1" ht="12.75">
       <c r="B239" s="18">
         <v>107</v>
       </c>
@@ -47294,7 +47605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" s="22" customFormat="1" ht="12.75" spans="2:33">
+    <row r="240" spans="1:131" s="22" customFormat="1" ht="12.75">
       <c r="B240" s="18">
         <v>108</v>
       </c>
@@ -47392,7 +47703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" s="22" customFormat="1" ht="12.75" spans="2:33">
+    <row r="241" spans="2:33" s="22" customFormat="1" ht="12.75">
       <c r="B241" s="18">
         <v>109</v>
       </c>
@@ -47490,7 +47801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" s="22" customFormat="1" ht="12.75" spans="2:33">
+    <row r="242" spans="2:33" s="22" customFormat="1" ht="12.75">
       <c r="B242" s="18">
         <v>110</v>
       </c>
@@ -47588,7 +47899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" s="22" customFormat="1" ht="12.75" spans="2:33">
+    <row r="243" spans="2:33" s="22" customFormat="1" ht="12.75">
       <c r="B243" s="18">
         <v>111</v>
       </c>
@@ -47686,7 +47997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" s="22" customFormat="1" ht="12.75" spans="2:33">
+    <row r="244" spans="2:33" s="22" customFormat="1" ht="12.75">
       <c r="B244" s="18">
         <v>112</v>
       </c>
@@ -47784,7 +48095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" s="22" customFormat="1" ht="12.75" spans="2:33">
+    <row r="245" spans="2:33" s="22" customFormat="1" ht="12.75">
       <c r="B245" s="18">
         <v>113</v>
       </c>
@@ -47882,7 +48193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" s="22" customFormat="1" ht="12.75" spans="2:33">
+    <row r="246" spans="2:33" s="22" customFormat="1" ht="12.75">
       <c r="B246" s="18">
         <v>114</v>
       </c>
@@ -47980,7 +48291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" s="22" customFormat="1" ht="12.75" spans="2:33">
+    <row r="247" spans="2:33" s="22" customFormat="1" ht="12.75">
       <c r="B247" s="18">
         <v>115</v>
       </c>
@@ -48078,7 +48389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" s="22" customFormat="1" ht="12.75" spans="2:33">
+    <row r="248" spans="2:33" s="22" customFormat="1" ht="12.75">
       <c r="B248" s="18">
         <v>116</v>
       </c>
@@ -48176,7 +48487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" s="22" customFormat="1" ht="12.75" spans="2:33">
+    <row r="249" spans="2:33" s="22" customFormat="1" ht="12.75">
       <c r="B249" s="18">
         <v>117</v>
       </c>
@@ -48274,7 +48585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" s="22" customFormat="1" ht="12.75" spans="2:33">
+    <row r="250" spans="2:33" s="22" customFormat="1" ht="12.75">
       <c r="B250" s="18">
         <v>118</v>
       </c>
@@ -48372,7 +48683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" s="22" customFormat="1" ht="12.75" spans="2:33">
+    <row r="251" spans="2:33" s="22" customFormat="1" ht="12.75">
       <c r="B251" s="18">
         <v>119</v>
       </c>
@@ -48470,7 +48781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" ht="14.25" spans="1:2">
+    <row r="258" spans="1:142" ht="14.25">
       <c r="A258" s="12" t="s">
         <v>59</v>
       </c>
@@ -48478,13 +48789,13 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:142">
       <c r="A259" s="14"/>
       <c r="B259" s="10" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="260" spans="2:28">
+    <row r="260" spans="1:142">
       <c r="B260" s="15" t="s">
         <v>63</v>
       </c>
@@ -48567,7 +48878,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="261" ht="13.5" spans="1:142">
+    <row r="261" spans="1:142" ht="13.5">
       <c r="A261" s="32"/>
       <c r="B261" s="18">
         <v>118</v>
@@ -48765,7 +49076,7 @@
       <c r="EK261" s="32"/>
       <c r="EL261" s="32"/>
     </row>
-    <row r="262" ht="13.5" spans="1:142">
+    <row r="262" spans="1:142" ht="13.5">
       <c r="A262" s="32"/>
       <c r="B262" s="18">
         <v>119</v>
@@ -48963,7 +49274,7 @@
       <c r="EK262" s="32"/>
       <c r="EL262" s="32"/>
     </row>
-    <row r="263" ht="13.5" spans="1:142">
+    <row r="263" spans="1:142" ht="13.5">
       <c r="A263" s="32"/>
       <c r="B263" s="18">
         <v>120</v>
@@ -49161,7 +49472,7 @@
       <c r="EK263" s="32"/>
       <c r="EL263" s="32"/>
     </row>
-    <row r="264" ht="13.5" spans="1:142">
+    <row r="264" spans="1:142" ht="13.5">
       <c r="A264" s="32"/>
       <c r="B264" s="18">
         <v>121</v>
@@ -49359,7 +49670,7 @@
       <c r="EK264" s="32"/>
       <c r="EL264" s="32"/>
     </row>
-    <row r="265" ht="13.5" spans="1:142">
+    <row r="265" spans="1:142" ht="13.5">
       <c r="A265" s="32"/>
       <c r="B265" s="18">
         <v>122</v>
@@ -49557,7 +49868,7 @@
       <c r="EK265" s="32"/>
       <c r="EL265" s="32"/>
     </row>
-    <row r="266" ht="13.5" spans="1:142">
+    <row r="266" spans="1:142" ht="13.5">
       <c r="A266" s="32"/>
       <c r="B266" s="18">
         <v>123</v>
@@ -49755,7 +50066,7 @@
       <c r="EK266" s="32"/>
       <c r="EL266" s="32"/>
     </row>
-    <row r="267" ht="13.5" spans="1:142">
+    <row r="267" spans="1:142" ht="13.5">
       <c r="A267" s="32"/>
       <c r="B267" s="18">
         <v>124</v>
@@ -49953,7 +50264,7 @@
       <c r="EK267" s="32"/>
       <c r="EL267" s="32"/>
     </row>
-    <row r="268" ht="13.5" spans="1:142">
+    <row r="268" spans="1:142" ht="13.5">
       <c r="A268" s="32"/>
       <c r="B268" s="18">
         <v>125</v>
@@ -50151,7 +50462,7 @@
       <c r="EK268" s="32"/>
       <c r="EL268" s="32"/>
     </row>
-    <row r="269" ht="13.5" spans="1:142">
+    <row r="269" spans="1:142" ht="13.5">
       <c r="A269" s="32"/>
       <c r="B269" s="18">
         <v>126</v>
@@ -50349,7 +50660,7 @@
       <c r="EK269" s="32"/>
       <c r="EL269" s="32"/>
     </row>
-    <row r="270" ht="13.5" spans="1:142">
+    <row r="270" spans="1:142" ht="13.5">
       <c r="A270" s="32"/>
       <c r="B270" s="18">
         <v>127</v>
@@ -50547,7 +50858,7 @@
       <c r="EK270" s="32"/>
       <c r="EL270" s="32"/>
     </row>
-    <row r="271" ht="13.5" spans="1:142">
+    <row r="271" spans="1:142" ht="13.5">
       <c r="A271" s="32"/>
       <c r="B271" s="18">
         <v>128</v>
@@ -50745,7 +51056,7 @@
       <c r="EK271" s="32"/>
       <c r="EL271" s="32"/>
     </row>
-    <row r="272" ht="13.5" spans="1:142">
+    <row r="272" spans="1:142" ht="13.5">
       <c r="A272" s="32"/>
       <c r="B272" s="18">
         <v>129</v>
@@ -50943,7 +51254,7 @@
       <c r="EK272" s="32"/>
       <c r="EL272" s="32"/>
     </row>
-    <row r="273" ht="13.5" spans="1:142">
+    <row r="273" spans="1:142" ht="13.5">
       <c r="A273" s="32"/>
       <c r="B273" s="18">
         <v>130</v>
@@ -51141,7 +51452,7 @@
       <c r="EK273" s="32"/>
       <c r="EL273" s="32"/>
     </row>
-    <row r="274" ht="13.5" spans="1:142">
+    <row r="274" spans="1:142" ht="13.5">
       <c r="A274" s="32"/>
       <c r="B274" s="18">
         <v>160</v>
@@ -51339,7 +51650,7 @@
       <c r="EK274" s="32"/>
       <c r="EL274" s="32"/>
     </row>
-    <row r="275" ht="13.5" spans="1:142">
+    <row r="275" spans="1:142" ht="13.5">
       <c r="A275" s="32"/>
       <c r="B275" s="18">
         <v>161</v>
@@ -51537,7 +51848,7 @@
       <c r="EK275" s="32"/>
       <c r="EL275" s="32"/>
     </row>
-    <row r="276" ht="13.5" spans="1:142">
+    <row r="276" spans="1:142" ht="13.5">
       <c r="A276" s="32"/>
       <c r="B276" s="18">
         <v>162</v>
@@ -51735,7 +52046,7 @@
       <c r="EK276" s="32"/>
       <c r="EL276" s="32"/>
     </row>
-    <row r="277" ht="13.5" spans="1:142">
+    <row r="277" spans="1:142" ht="13.5">
       <c r="A277" s="32"/>
       <c r="B277" s="18">
         <v>163</v>
@@ -51933,7 +52244,7 @@
       <c r="EK277" s="32"/>
       <c r="EL277" s="32"/>
     </row>
-    <row r="278" ht="13.5" spans="1:142">
+    <row r="278" spans="1:142" ht="13.5">
       <c r="A278" s="32"/>
       <c r="B278" s="18">
         <v>164</v>
@@ -52131,7 +52442,7 @@
       <c r="EK278" s="32"/>
       <c r="EL278" s="32"/>
     </row>
-    <row r="279" ht="13.5" spans="1:142">
+    <row r="279" spans="1:142" ht="13.5">
       <c r="A279" s="32"/>
       <c r="B279" s="18">
         <v>165</v>
@@ -52329,7 +52640,7 @@
       <c r="EK279" s="32"/>
       <c r="EL279" s="32"/>
     </row>
-    <row r="280" ht="13.5" spans="1:142">
+    <row r="280" spans="1:142" ht="13.5">
       <c r="A280" s="32"/>
       <c r="B280" s="18">
         <v>166</v>
@@ -52527,7 +52838,7 @@
       <c r="EK280" s="32"/>
       <c r="EL280" s="32"/>
     </row>
-    <row r="281" ht="13.5" spans="1:142">
+    <row r="281" spans="1:142" ht="13.5">
       <c r="A281" s="32"/>
       <c r="B281" s="18">
         <v>167</v>
@@ -52725,7 +53036,7 @@
       <c r="EK281" s="32"/>
       <c r="EL281" s="32"/>
     </row>
-    <row r="287" ht="14.25" spans="1:2">
+    <row r="287" spans="1:142" ht="14.25">
       <c r="A287" s="12" t="s">
         <v>59</v>
       </c>
@@ -52733,12 +53044,12 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="288" spans="2:2">
+    <row r="288" spans="1:142">
       <c r="B288" s="10" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="289" spans="2:10">
+    <row r="289" spans="1:11">
       <c r="B289" s="15" t="s">
         <v>63</v>
       </c>
@@ -52767,15 +53078,15 @@
         <v>270</v>
       </c>
     </row>
-    <row r="290" spans="2:10">
+    <row r="290" spans="1:11">
       <c r="B290" s="18">
         <v>1</v>
       </c>
       <c r="C290" s="17">
-        <v>43147.2854976852</v>
+        <v>43147.285497685203</v>
       </c>
       <c r="D290" s="17">
-        <v>43147.2854976852</v>
+        <v>43147.285497685203</v>
       </c>
       <c r="E290" s="18">
         <v>0</v>
@@ -52796,7 +53107,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="295" ht="14.25" spans="1:2">
+    <row r="295" spans="1:11" ht="14.25">
       <c r="A295" s="12" t="s">
         <v>59</v>
       </c>
@@ -52804,12 +53115,12 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="296" spans="2:2">
+    <row r="296" spans="1:11">
       <c r="B296" s="10" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="297" spans="2:11">
+    <row r="297" spans="1:11">
       <c r="B297" s="15" t="s">
         <v>63</v>
       </c>
@@ -52841,15 +53152,15 @@
         <v>270</v>
       </c>
     </row>
-    <row r="298" spans="2:11">
+    <row r="298" spans="1:11">
       <c r="B298" s="18">
         <v>1</v>
       </c>
       <c r="C298" s="17">
-        <v>43197.2650925926</v>
+        <v>43197.265092592599</v>
       </c>
       <c r="D298" s="17">
-        <v>43197.2650925926</v>
+        <v>43197.265092592599</v>
       </c>
       <c r="E298" s="18">
         <v>0</v>
@@ -52873,15 +53184,15 @@
         <v>175</v>
       </c>
     </row>
-    <row r="299" spans="2:11">
+    <row r="299" spans="1:11">
       <c r="B299" s="18">
         <v>2</v>
       </c>
       <c r="C299" s="17">
-        <v>43197.2650925926</v>
+        <v>43197.265092592599</v>
       </c>
       <c r="D299" s="17">
-        <v>43197.2650925926</v>
+        <v>43197.265092592599</v>
       </c>
       <c r="E299" s="18">
         <v>0</v>
@@ -52905,15 +53216,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="300" spans="2:11">
+    <row r="300" spans="1:11">
       <c r="B300" s="18">
         <v>3</v>
       </c>
       <c r="C300" s="17">
-        <v>43206.5345486111</v>
+        <v>43206.534548611096</v>
       </c>
       <c r="D300" s="17">
-        <v>43218.3041666667</v>
+        <v>43218.304166666698</v>
       </c>
       <c r="E300" s="18">
         <v>0</v>
@@ -52937,15 +53248,15 @@
         <v>195</v>
       </c>
     </row>
-    <row r="301" spans="2:11">
+    <row r="301" spans="1:11">
       <c r="B301" s="18">
         <v>4</v>
       </c>
       <c r="C301" s="17">
-        <v>43218.3041666667</v>
+        <v>43218.304166666698</v>
       </c>
       <c r="D301" s="17">
-        <v>43218.3041666667</v>
+        <v>43218.304166666698</v>
       </c>
       <c r="E301" s="18">
         <v>0</v>
@@ -52969,11 +53280,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="304" ht="12.75" spans="3:4">
+    <row r="304" spans="1:11" ht="12.75">
       <c r="C304" s="19"/>
       <c r="D304" s="19"/>
     </row>
-    <row r="305" ht="14.25" spans="1:2">
+    <row r="305" spans="1:13" ht="14.25">
       <c r="A305" s="12" t="s">
         <v>59</v>
       </c>
@@ -52981,14 +53292,14 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="306" ht="12.75" spans="2:4">
+    <row r="306" spans="1:13" ht="12.75">
       <c r="B306" s="10" t="s">
         <v>1123</v>
       </c>
       <c r="C306" s="19"/>
       <c r="D306" s="19"/>
     </row>
-    <row r="307" spans="2:13">
+    <row r="307" spans="1:13">
       <c r="B307" s="15" t="s">
         <v>63</v>
       </c>
@@ -53026,15 +53337,15 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="308" spans="2:13">
+    <row r="308" spans="1:13">
       <c r="B308" s="18">
         <v>28</v>
       </c>
       <c r="C308" s="17">
-        <v>43229.3970601852</v>
+        <v>43229.397060185198</v>
       </c>
       <c r="D308" s="17">
-        <v>43229.3985069444</v>
+        <v>43229.398506944402</v>
       </c>
       <c r="E308" s="18">
         <v>0</v>
@@ -53064,15 +53375,15 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="309" spans="2:13">
+    <row r="309" spans="1:13">
       <c r="B309" s="18">
         <v>29</v>
       </c>
       <c r="C309" s="17">
-        <v>43229.3970601852</v>
+        <v>43229.397060185198</v>
       </c>
       <c r="D309" s="17">
-        <v>43234.1663425926</v>
+        <v>43234.166342592602</v>
       </c>
       <c r="E309" s="18">
         <v>0</v>
@@ -53102,15 +53413,15 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="310" spans="2:13">
+    <row r="310" spans="1:13">
       <c r="B310" s="18">
         <v>30</v>
       </c>
       <c r="C310" s="17">
-        <v>43229.3970601852</v>
+        <v>43229.397060185198</v>
       </c>
       <c r="D310" s="17">
-        <v>43234.1663425926</v>
+        <v>43234.166342592602</v>
       </c>
       <c r="E310" s="18">
         <v>0</v>
@@ -53140,15 +53451,15 @@
         <v>3333</v>
       </c>
     </row>
-    <row r="311" spans="2:13">
+    <row r="311" spans="1:13">
       <c r="B311" s="18">
         <v>31</v>
       </c>
       <c r="C311" s="17">
-        <v>43229.4134953704</v>
+        <v>43229.413495370398</v>
       </c>
       <c r="D311" s="17">
-        <v>43229.4134953704</v>
+        <v>43229.413495370398</v>
       </c>
       <c r="E311" s="18">
         <v>0</v>
@@ -53178,12 +53489,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="312" spans="2:13">
+    <row r="312" spans="1:13">
       <c r="B312" s="18">
         <v>32</v>
       </c>
       <c r="C312" s="17">
-        <v>43230.2953819444</v>
+        <v>43230.295381944401</v>
       </c>
       <c r="D312" s="17">
         <v>43230.2957523148</v>
@@ -53216,7 +53527,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="313" spans="2:13">
+    <row r="313" spans="1:13">
       <c r="B313" s="18">
         <v>33</v>
       </c>
@@ -53254,15 +53565,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="314" spans="2:13">
+    <row r="314" spans="1:13">
       <c r="B314" s="18">
         <v>34</v>
       </c>
       <c r="C314" s="17">
-        <v>43235.0934722222</v>
+        <v>43235.093472222201</v>
       </c>
       <c r="D314" s="17">
-        <v>43235.0934722222</v>
+        <v>43235.093472222201</v>
       </c>
       <c r="E314" s="18">
         <v>0</v>
@@ -53292,15 +53603,15 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="315" spans="2:13">
+    <row r="315" spans="1:13">
       <c r="B315" s="18">
         <v>35</v>
       </c>
       <c r="C315" s="17">
-        <v>43241.340474537</v>
+        <v>43241.340474536999</v>
       </c>
       <c r="D315" s="17">
-        <v>43241.340474537</v>
+        <v>43241.340474536999</v>
       </c>
       <c r="E315" s="18">
         <v>0</v>
@@ -53330,15 +53641,15 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="316" spans="2:13">
+    <row r="316" spans="1:13">
       <c r="B316" s="18">
         <v>36</v>
       </c>
       <c r="C316" s="17">
-        <v>43241.340474537</v>
+        <v>43241.340474536999</v>
       </c>
       <c r="D316" s="17">
-        <v>43241.340474537</v>
+        <v>43241.340474536999</v>
       </c>
       <c r="E316" s="18">
         <v>0</v>
@@ -53368,15 +53679,15 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="317" spans="2:13">
+    <row r="317" spans="1:13">
       <c r="B317" s="18">
         <v>37</v>
       </c>
       <c r="C317" s="17">
-        <v>43241.3497337963</v>
+        <v>43241.349733796298</v>
       </c>
       <c r="D317" s="17">
-        <v>43241.3531018519</v>
+        <v>43241.353101851899</v>
       </c>
       <c r="E317" s="18">
         <v>0</v>
@@ -53406,15 +53717,15 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="318" spans="2:13">
+    <row r="318" spans="1:13">
       <c r="B318" s="18">
         <v>38</v>
       </c>
       <c r="C318" s="17">
-        <v>43241.3497337963</v>
+        <v>43241.349733796298</v>
       </c>
       <c r="D318" s="17">
-        <v>43241.3531018519</v>
+        <v>43241.353101851899</v>
       </c>
       <c r="E318" s="18">
         <v>0</v>
@@ -53444,15 +53755,15 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="319" spans="2:13">
+    <row r="319" spans="1:13">
       <c r="B319" s="18">
         <v>39</v>
       </c>
       <c r="C319" s="17">
-        <v>43241.3531018519</v>
+        <v>43241.353101851899</v>
       </c>
       <c r="D319" s="17">
-        <v>43241.3531018519</v>
+        <v>43241.353101851899</v>
       </c>
       <c r="E319" s="18">
         <v>0</v>
@@ -53482,7 +53793,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="320" spans="2:13">
+    <row r="320" spans="1:13">
       <c r="B320" s="18">
         <v>40</v>
       </c>
@@ -53563,10 +53874,10 @@
         <v>42</v>
       </c>
       <c r="C322" s="17">
-        <v>43241.3817708333</v>
+        <v>43241.381770833301</v>
       </c>
       <c r="D322" s="17">
-        <v>43241.3817708333</v>
+        <v>43241.381770833301</v>
       </c>
       <c r="E322" s="18">
         <v>0</v>
@@ -53601,10 +53912,10 @@
         <v>43</v>
       </c>
       <c r="C323" s="17">
-        <v>43241.3817708333</v>
+        <v>43241.381770833301</v>
       </c>
       <c r="D323" s="17">
-        <v>43241.3817708333</v>
+        <v>43241.381770833301</v>
       </c>
       <c r="E323" s="18">
         <v>0</v>
@@ -53634,655 +53945,654 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="330" ht="12.75" spans="3:4">
+    <row r="330" spans="2:13" ht="12.75">
       <c r="C330" s="19"/>
       <c r="D330" s="19"/>
     </row>
-    <row r="331" ht="12.75" spans="3:4">
+    <row r="331" spans="2:13" ht="12.75">
       <c r="C331" s="19"/>
       <c r="D331" s="19"/>
     </row>
-    <row r="332" ht="12.75" spans="3:4">
+    <row r="332" spans="2:13" ht="12.75">
       <c r="C332" s="19"/>
       <c r="D332" s="19"/>
     </row>
-    <row r="333" ht="12.75" spans="3:4">
+    <row r="333" spans="2:13" ht="12.75">
       <c r="C333" s="19"/>
       <c r="D333" s="19"/>
     </row>
-    <row r="334" ht="12.75" spans="3:4">
+    <row r="334" spans="2:13" ht="12.75">
       <c r="C334" s="19"/>
       <c r="D334" s="19"/>
     </row>
-    <row r="335" ht="12.75" spans="3:4">
+    <row r="335" spans="2:13" ht="12.75">
       <c r="C335" s="19"/>
       <c r="D335" s="19"/>
     </row>
-    <row r="336" ht="12.75" spans="3:4">
+    <row r="336" spans="2:13" ht="12.75">
       <c r="C336" s="19"/>
       <c r="D336" s="19"/>
     </row>
-    <row r="337" ht="12.75" spans="3:4">
+    <row r="337" spans="3:4" ht="12.75">
       <c r="C337" s="19"/>
       <c r="D337" s="19"/>
     </row>
-    <row r="338" ht="12.75" spans="3:4">
+    <row r="338" spans="3:4" ht="12.75">
       <c r="C338" s="19"/>
       <c r="D338" s="19"/>
     </row>
-    <row r="339" ht="12.75" spans="3:4">
+    <row r="339" spans="3:4" ht="12.75">
       <c r="C339" s="19"/>
       <c r="D339" s="19"/>
     </row>
-    <row r="340" ht="12.75" spans="3:4">
+    <row r="340" spans="3:4" ht="12.75">
       <c r="C340" s="19"/>
       <c r="D340" s="19"/>
     </row>
-    <row r="341" ht="12.75" spans="3:4">
+    <row r="341" spans="3:4" ht="12.75">
       <c r="C341" s="19"/>
       <c r="D341" s="19"/>
     </row>
-    <row r="342" ht="12.75" spans="3:4">
+    <row r="342" spans="3:4" ht="12.75">
       <c r="C342" s="19"/>
       <c r="D342" s="19"/>
     </row>
-    <row r="343" ht="12.75" spans="3:4">
+    <row r="343" spans="3:4" ht="12.75">
       <c r="C343" s="19"/>
       <c r="D343" s="19"/>
     </row>
-    <row r="344" ht="12.75" spans="3:4">
+    <row r="344" spans="3:4" ht="12.75">
       <c r="C344" s="19"/>
       <c r="D344" s="19"/>
     </row>
-    <row r="345" ht="12.75" spans="3:4">
+    <row r="345" spans="3:4" ht="12.75">
       <c r="C345" s="19"/>
       <c r="D345" s="19"/>
     </row>
-    <row r="346" ht="12.75" spans="3:4">
+    <row r="346" spans="3:4" ht="12.75">
       <c r="C346" s="19"/>
       <c r="D346" s="19"/>
     </row>
-    <row r="347" ht="12.75" spans="3:4">
+    <row r="347" spans="3:4" ht="12.75">
       <c r="C347" s="19"/>
       <c r="D347" s="19"/>
     </row>
-    <row r="348" ht="12.75" spans="3:4">
+    <row r="348" spans="3:4" ht="12.75">
       <c r="C348" s="19"/>
       <c r="D348" s="19"/>
     </row>
-    <row r="349" ht="12.75" spans="3:4">
+    <row r="349" spans="3:4" ht="12.75">
       <c r="C349" s="19"/>
       <c r="D349" s="19"/>
     </row>
-    <row r="350" ht="12.75" spans="3:4">
+    <row r="350" spans="3:4" ht="12.75">
       <c r="C350" s="19"/>
       <c r="D350" s="19"/>
     </row>
-    <row r="351" ht="12.75" spans="3:4">
+    <row r="351" spans="3:4" ht="12.75">
       <c r="C351" s="19"/>
       <c r="D351" s="19"/>
     </row>
-    <row r="352" ht="12.75" spans="3:4">
+    <row r="352" spans="3:4" ht="12.75">
       <c r="C352" s="19"/>
       <c r="D352" s="19"/>
     </row>
-    <row r="353" ht="12.75" spans="3:4">
+    <row r="353" spans="3:4" ht="12.75">
       <c r="C353" s="19"/>
       <c r="D353" s="19"/>
     </row>
-    <row r="354" ht="12.75" spans="3:4">
+    <row r="354" spans="3:4" ht="12.75">
       <c r="C354" s="19"/>
       <c r="D354" s="19"/>
     </row>
-    <row r="355" ht="12.75" spans="3:4">
+    <row r="355" spans="3:4" ht="12.75">
       <c r="C355" s="19"/>
       <c r="D355" s="19"/>
     </row>
-    <row r="356" ht="12.75" spans="3:4">
+    <row r="356" spans="3:4" ht="12.75">
       <c r="C356" s="19"/>
       <c r="D356" s="19"/>
     </row>
-    <row r="357" ht="12.75" spans="3:4">
+    <row r="357" spans="3:4" ht="12.75">
       <c r="C357" s="19"/>
       <c r="D357" s="19"/>
     </row>
-    <row r="358" ht="12.75" spans="3:4">
+    <row r="358" spans="3:4" ht="12.75">
       <c r="C358" s="19"/>
       <c r="D358" s="19"/>
     </row>
-    <row r="359" ht="12.75" spans="3:4">
+    <row r="359" spans="3:4" ht="12.75">
       <c r="C359" s="19"/>
       <c r="D359" s="19"/>
     </row>
-    <row r="360" ht="12.75" spans="3:4">
+    <row r="360" spans="3:4" ht="12.75">
       <c r="C360" s="19"/>
       <c r="D360" s="19"/>
     </row>
-    <row r="361" ht="12.75" spans="3:4">
+    <row r="361" spans="3:4" ht="12.75">
       <c r="C361" s="19"/>
       <c r="D361" s="19"/>
     </row>
-    <row r="362" ht="12.75" spans="3:4">
+    <row r="362" spans="3:4" ht="12.75">
       <c r="C362" s="19"/>
       <c r="D362" s="19"/>
     </row>
-    <row r="363" ht="12.75" spans="3:4">
+    <row r="363" spans="3:4" ht="12.75">
       <c r="C363" s="19"/>
       <c r="D363" s="19"/>
     </row>
-    <row r="364" ht="12.75" spans="3:4">
+    <row r="364" spans="3:4" ht="12.75">
       <c r="C364" s="19"/>
       <c r="D364" s="19"/>
     </row>
-    <row r="365" ht="12.75" spans="3:4">
+    <row r="365" spans="3:4" ht="12.75">
       <c r="C365" s="19"/>
       <c r="D365" s="19"/>
     </row>
-    <row r="366" ht="12.75" spans="3:4">
+    <row r="366" spans="3:4" ht="12.75">
       <c r="C366" s="19"/>
       <c r="D366" s="19"/>
     </row>
-    <row r="367" ht="12.75" spans="3:4">
+    <row r="367" spans="3:4" ht="12.75">
       <c r="C367" s="19"/>
       <c r="D367" s="19"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="B161">
-    <cfRule type="cellIs" dxfId="0" priority="469" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="469" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B201:E201">
-    <cfRule type="cellIs" dxfId="0" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="406" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F201">
-    <cfRule type="cellIs" dxfId="0" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="407" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G201">
-    <cfRule type="cellIs" dxfId="0" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="405" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H201:L201">
-    <cfRule type="cellIs" dxfId="0" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="401" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M201:EK201">
-    <cfRule type="cellIs" dxfId="0" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="254" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EL201">
-    <cfRule type="cellIs" dxfId="0" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="257" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EM201">
-    <cfRule type="cellIs" dxfId="0" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="258" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EN201">
-    <cfRule type="cellIs" dxfId="0" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="259" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EO201">
-    <cfRule type="cellIs" dxfId="0" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="260" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EP201">
-    <cfRule type="cellIs" dxfId="0" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="261" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EQ201">
-    <cfRule type="cellIs" dxfId="0" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="262" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="ER201">
-    <cfRule type="cellIs" dxfId="0" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="263" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EM229">
-    <cfRule type="cellIs" dxfId="0" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="91" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230">
-    <cfRule type="cellIs" dxfId="0" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="411" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C230:AG230">
-    <cfRule type="cellIs" dxfId="0" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="410" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U231">
-    <cfRule type="cellIs" dxfId="0" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="56" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA231">
-    <cfRule type="cellIs" dxfId="0" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="55" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U232">
-    <cfRule type="cellIs" dxfId="0" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="49" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B260">
-    <cfRule type="cellIs" dxfId="0" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="421" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C260:AA260">
-    <cfRule type="cellIs" dxfId="0" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="420" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB260">
-    <cfRule type="cellIs" dxfId="0" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="48" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A287">
-    <cfRule type="cellIs" dxfId="0" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="46" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B288">
-    <cfRule type="cellIs" dxfId="0" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="44" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="cellIs" dxfId="0" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="42" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C289:J289">
-    <cfRule type="cellIs" dxfId="0" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="40" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F290">
-    <cfRule type="cellIs" dxfId="0" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="34" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I290">
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="33" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J290">
-    <cfRule type="cellIs" dxfId="0" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="35" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295">
-    <cfRule type="cellIs" dxfId="0" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="45" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B296">
-    <cfRule type="cellIs" dxfId="0" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="43" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B297">
-    <cfRule type="cellIs" dxfId="0" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="41" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C297:K297">
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="39" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A305">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="29" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B306">
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="28" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B307">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="27" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C307:M307">
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="26" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L308">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="4" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L309">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="3" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L310">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="2" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F231:F249">
-    <cfRule type="cellIs" dxfId="0" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="89" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250:F251">
-    <cfRule type="cellIs" dxfId="0" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="88" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F298:F301">
-    <cfRule type="cellIs" dxfId="0" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="32" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F308:F323">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="23" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I231:I249">
-    <cfRule type="cellIs" dxfId="0" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="86" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I250:I251">
-    <cfRule type="cellIs" dxfId="0" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="85" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I298:I299">
-    <cfRule type="cellIs" dxfId="0" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="31" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I308:I323">
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="24" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J308:J323">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="1" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K298:K301">
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="36" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K308:K310">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="13" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K312:K316">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="12" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K318:K323">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="11" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L261:L281">
-    <cfRule type="cellIs" dxfId="0" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="52" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M261:M268">
-    <cfRule type="cellIs" dxfId="0" priority="417" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="417" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M269:M276">
-    <cfRule type="cellIs" dxfId="0" priority="416" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="416" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M277:M281">
-    <cfRule type="cellIs" dxfId="0" priority="415" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="415" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N261:N276">
-    <cfRule type="cellIs" dxfId="0" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="414" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N277:N281">
-    <cfRule type="cellIs" dxfId="0" priority="413" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="413" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O231:O249">
-    <cfRule type="cellIs" dxfId="0" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="83" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O250:O251">
-    <cfRule type="cellIs" dxfId="0" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P231:P249">
-    <cfRule type="cellIs" dxfId="0" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="80" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P250:P251">
-    <cfRule type="cellIs" dxfId="0" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q231:Q249">
-    <cfRule type="cellIs" dxfId="0" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q250:Q251">
-    <cfRule type="cellIs" dxfId="0" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="76" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R231:R249">
-    <cfRule type="cellIs" dxfId="0" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="74" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R250:R251">
-    <cfRule type="cellIs" dxfId="0" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="73" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S231:S251">
-    <cfRule type="cellIs" dxfId="0" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="53" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T231:T249">
-    <cfRule type="cellIs" dxfId="0" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="71" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T250:T251">
-    <cfRule type="cellIs" dxfId="0" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="70" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U233:U249">
-    <cfRule type="cellIs" dxfId="0" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="59" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U250:U251">
-    <cfRule type="cellIs" dxfId="0" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="58" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U261:U281">
-    <cfRule type="cellIs" dxfId="0" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="90" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA233:AA249">
-    <cfRule type="cellIs" dxfId="0" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="62" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA250:AA251">
-    <cfRule type="cellIs" dxfId="0" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="61" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB261:AB281">
-    <cfRule type="cellIs" dxfId="0" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="47" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A1:$XFD90 $A324:$XFD329 A330:B367 E330:XFD367 $A368:$XFD1048576 E306:XFD306 C305:XFD305 $A302:$XFD303 N307:XFD323 A304:B304 E304:XFD304 A307:A323 L297:XFD301 C296:XFD296 A296:A301 B295:XFD295 $A291:$XFD294 K289:XFD290 C288:XFD288 A288:A290 B287:XFD287 $A285:$XFD286 A257:EL257 AC260:EL260 C258:EL259 A282:EL284 EM252:XFD284 EN229:XFD229 EM224:XFD228 ES223:XFD223 EM223 EQ206:XFD209 C199:XFD199 $A162:$XFD198 C161:XFD161 A161 $A99:$XFD160">
-    <cfRule type="cellIs" dxfId="0" priority="472" operator="equal">
+  <conditionalFormatting sqref="A1:XFD90 A324:XFD329 A330:B367 E330:XFD367 A368:XFD1048576 E306:XFD306 C305:XFD305 A302:XFD303 N307:XFD323 A304:B304 E304:XFD304 A307:A323 L297:XFD301 C296:XFD296 A296:A301 B295:XFD295 A291:XFD294 K289:XFD290 C288:XFD288 A288:A290 B287:XFD287 A285:XFD286 A257:EL257 AC260:EL260 C258:EL259 A282:EL284 EM252:XFD284 EN229:XFD229 EM224:XFD228 ES223:XFD223 EM223 EQ206:XFD209 C199:XFD199 A162:XFD198 C161:XFD161 A161 A99:XFD160">
+    <cfRule type="cellIs" dxfId="66" priority="472" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91:BV98">
-    <cfRule type="cellIs" dxfId="0" priority="470" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="470" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IF91:XFD98">
-    <cfRule type="cellIs" dxfId="0" priority="471" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="471" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A199:B200">
-    <cfRule type="cellIs" dxfId="0" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="412" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B202:EK222">
-    <cfRule type="cellIs" dxfId="0" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="93" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EN223:ER223 EL202:EP222">
-    <cfRule type="cellIs" dxfId="0" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="92" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A228:B229">
-    <cfRule type="cellIs" dxfId="0" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="408" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B231:B251 J231:N251 G231:H251 AA232 E231:E251 AG231:AG251">
-    <cfRule type="cellIs" dxfId="0" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="409" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C231:D249">
-    <cfRule type="cellIs" dxfId="0" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="252" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V231:Z249">
-    <cfRule type="cellIs" dxfId="0" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="68" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB231:AF249">
-    <cfRule type="cellIs" dxfId="0" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="65" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C250:D251">
-    <cfRule type="cellIs" dxfId="0" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="251" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V250:Z251">
-    <cfRule type="cellIs" dxfId="0" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="67" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB250:AF251">
-    <cfRule type="cellIs" dxfId="0" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="64" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A258:B259">
-    <cfRule type="cellIs" dxfId="0" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="418" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B261:F281 O261:T281 V261:AA281">
-    <cfRule type="cellIs" dxfId="0" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="419" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B290:E290 G290:H290">
-    <cfRule type="cellIs" dxfId="0" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="38" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B298:E301 G300:J301 J298:J299 G298:H299">
-    <cfRule type="cellIs" dxfId="0" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="37" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B305 A306">
-    <cfRule type="cellIs" dxfId="0" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="30" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L318:M323 B308:E323 G308:H323 M308:M310 K311:M311 L312:M316 K317:M317">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="25" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="9" customWidth="1"/>
@@ -54292,34 +54602,31 @@
     <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="1" spans="1:7" ht="12" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>1142</v>
       </c>
       <c r="B1" s="48" t="s">
         <v>1143</v>
       </c>
-      <c r="C1" s="26"/>
     </row>
-    <row r="4" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="4" spans="1:7" ht="12" customHeight="1">
       <c r="A4" s="25" t="s">
         <v>1144</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>1145</v>
       </c>
-      <c r="C4" s="26"/>
     </row>
-    <row r="5" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="25" t="s">
         <v>1144</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>1146</v>
       </c>
-      <c r="C5" s="26"/>
     </row>
-    <row r="7" customFormat="1" ht="14.25" spans="1:4">
+    <row r="7" spans="1:7" customFormat="1" ht="14.25">
       <c r="A7" s="25" t="s">
         <v>1144</v>
       </c>
@@ -54329,7 +54636,7 @@
       <c r="C7" s="26"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" customFormat="1" ht="14.25" spans="1:7">
+    <row r="8" spans="1:7" customFormat="1" ht="14.25">
       <c r="A8" s="25" t="s">
         <v>1144</v>
       </c>
@@ -54342,19 +54649,19 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="13.5" spans="1:4">
+    <row r="9" spans="1:7" customFormat="1" ht="13.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="26"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" customFormat="1" ht="13.5" spans="1:4">
+    <row r="10" spans="1:7" customFormat="1" ht="13.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="26"/>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" customFormat="1" ht="14.25" spans="1:4">
+    <row r="11" spans="1:7" customFormat="1" ht="14.25">
       <c r="A11" s="25" t="s">
         <v>1144</v>
       </c>
@@ -54364,7 +54671,7 @@
       <c r="C11" s="26"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" customFormat="1" ht="14.25" spans="1:4">
+    <row r="12" spans="1:7" customFormat="1" ht="14.25">
       <c r="A12" s="25" t="s">
         <v>1144</v>
       </c>
@@ -54374,7 +54681,7 @@
       <c r="C12" s="26"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" customFormat="1" ht="14.25" spans="1:4">
+    <row r="13" spans="1:7" customFormat="1" ht="14.25">
       <c r="A13" s="25" t="s">
         <v>1152</v>
       </c>
@@ -54384,7 +54691,7 @@
       <c r="C13" s="26"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" customFormat="1" ht="14.25" spans="1:4">
+    <row r="14" spans="1:7" customFormat="1" ht="14.25">
       <c r="A14" s="25" t="s">
         <v>1144</v>
       </c>
@@ -54394,7 +54701,7 @@
       <c r="C14" s="26"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" customFormat="1" ht="14.25" spans="1:4">
+    <row r="15" spans="1:7" customFormat="1" ht="14.25">
       <c r="A15" s="25" t="s">
         <v>1144</v>
       </c>
@@ -54404,7 +54711,7 @@
       <c r="C15" s="26"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" customFormat="1" ht="14.25" spans="1:4">
+    <row r="16" spans="1:7" customFormat="1" ht="14.25">
       <c r="A16" s="25" t="s">
         <v>1152</v>
       </c>
@@ -54414,7 +54721,7 @@
       <c r="C16" s="26"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" customFormat="1" ht="14.25" spans="1:7">
+    <row r="17" spans="1:7" customFormat="1" ht="14.25">
       <c r="A17" s="25" t="s">
         <v>1144</v>
       </c>
@@ -54427,11 +54734,11 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="13.5" spans="3:4">
+    <row r="18" spans="1:7" customFormat="1" ht="13.5">
       <c r="C18" s="26"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" customFormat="1" ht="14.25" spans="1:4">
+    <row r="19" spans="1:7" customFormat="1" ht="14.25">
       <c r="A19" s="25" t="s">
         <v>1159</v>
       </c>
@@ -54443,7 +54750,7 @@
       </c>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" customFormat="1" ht="14.25" spans="1:4">
+    <row r="20" spans="1:7" customFormat="1" ht="14.25">
       <c r="A20" s="25" t="s">
         <v>1152</v>
       </c>
@@ -54453,7 +54760,7 @@
       <c r="C20" s="26"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" customFormat="1" ht="14.25" spans="1:4">
+    <row r="21" spans="1:7" customFormat="1" ht="14.25">
       <c r="A21" s="25" t="s">
         <v>1144</v>
       </c>
@@ -54463,23 +54770,23 @@
       <c r="C21" s="26"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" customFormat="1" ht="13.5" spans="3:4">
+    <row r="22" spans="1:7" customFormat="1" ht="13.5">
       <c r="C22" s="26"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" customFormat="1" ht="13.5" spans="3:4">
+    <row r="23" spans="1:7" customFormat="1" ht="13.5">
       <c r="C23" s="26"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" customFormat="1" ht="13.5"/>
-    <row r="25" customFormat="1" ht="13.5"/>
-    <row r="26" customFormat="1" ht="13.5"/>
-    <row r="27" customFormat="1" ht="13.5"/>
-    <row r="28" customFormat="1" ht="13.5"/>
-    <row r="29" customFormat="1" ht="13.5"/>
-    <row r="30" customFormat="1" ht="13.5"/>
-    <row r="31" customFormat="1" ht="13.5"/>
-    <row r="32" customFormat="1" ht="13.5"/>
+    <row r="24" spans="1:7" customFormat="1" ht="13.5"/>
+    <row r="25" spans="1:7" customFormat="1" ht="13.5"/>
+    <row r="26" spans="1:7" customFormat="1" ht="13.5"/>
+    <row r="27" spans="1:7" customFormat="1" ht="13.5"/>
+    <row r="28" spans="1:7" customFormat="1" ht="13.5"/>
+    <row r="29" spans="1:7" customFormat="1" ht="13.5"/>
+    <row r="30" spans="1:7" customFormat="1" ht="13.5"/>
+    <row r="31" spans="1:7" customFormat="1" ht="13.5"/>
+    <row r="32" spans="1:7" customFormat="1" ht="13.5"/>
     <row r="33" customFormat="1" ht="13.5"/>
     <row r="34" customFormat="1" ht="13.5"/>
     <row r="35" customFormat="1" ht="13.5"/>
@@ -54496,15 +54803,14 @@
     <row r="46" customFormat="1" ht="13.5"/>
     <row r="47" customFormat="1" ht="13.5"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IE31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -54527,7 +54833,7 @@
     <col min="74" max="74" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="2:103">
+    <row r="1" spans="1:239" s="9" customFormat="1">
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -54564,7 +54870,7 @@
       <c r="AI1" s="11"/>
       <c r="CY1"/>
     </row>
-    <row r="3" s="9" customFormat="1" ht="14.25" spans="1:35">
+    <row r="3" spans="1:239" s="9" customFormat="1" ht="14.25">
       <c r="A3" s="12" t="s">
         <v>59</v>
       </c>
@@ -54605,13 +54911,13 @@
       <c r="AH3" s="11"/>
       <c r="AI3" s="11"/>
     </row>
-    <row r="4" s="9" customFormat="1" ht="12" spans="1:2">
+    <row r="4" spans="1:239" s="9" customFormat="1" ht="12">
       <c r="A4" s="14"/>
       <c r="B4" s="10" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="1:239">
       <c r="B5" s="15" t="s">
         <v>63</v>
       </c>
@@ -54652,15 +54958,15 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="1:239">
       <c r="B6" s="17" t="s">
         <v>1171</v>
       </c>
       <c r="C6" s="17">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="D6" s="17">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>83</v>
@@ -54693,15 +54999,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="1:239">
       <c r="B7" s="17" t="s">
         <v>1176</v>
       </c>
       <c r="C7" s="17">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="D7" s="17">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>83</v>
@@ -54734,15 +55040,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="1:239">
       <c r="B8" s="17" t="s">
         <v>1180</v>
       </c>
       <c r="C8" s="17">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="D8" s="17">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>83</v>
@@ -54775,7 +55081,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:4">
+    <row r="13" spans="1:239" ht="14.25">
       <c r="A13" s="12" t="s">
         <v>59</v>
       </c>
@@ -54785,7 +55091,7 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:239" ht="14.25">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>1185</v>
@@ -54793,7 +55099,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
     </row>
-    <row r="15" spans="2:54">
+    <row r="15" spans="1:239" ht="14.25">
       <c r="B15" s="15" t="s">
         <v>63</v>
       </c>
@@ -54950,16 +55256,16 @@
       <c r="BA15" s="16"/>
       <c r="BB15" s="22"/>
     </row>
-    <row r="16" spans="1:239">
+    <row r="16" spans="1:239" ht="14.25">
       <c r="A16" s="11"/>
       <c r="B16" s="18" t="s">
         <v>1175</v>
       </c>
       <c r="C16" s="17">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="D16" s="17">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>83</v>
@@ -55292,15 +55598,15 @@
       <c r="ID16" s="11"/>
       <c r="IE16" s="11"/>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="1:239" ht="14.25">
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" spans="1:239" ht="14.25">
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
     </row>
-    <row r="21" ht="14.25" spans="1:2">
+    <row r="21" spans="1:239" ht="14.25">
       <c r="A21" s="12" t="s">
         <v>59</v>
       </c>
@@ -55308,13 +55614,13 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:239">
       <c r="A22" s="14"/>
       <c r="B22" s="10" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="23" spans="2:95">
+    <row r="23" spans="1:239">
       <c r="B23" s="15" t="s">
         <v>63</v>
       </c>
@@ -55604,10 +55910,10 @@
         <v>1266</v>
       </c>
       <c r="C24" s="17">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="D24" s="17">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>83</v>
@@ -56027,110 +56333,109 @@
       <c r="ID24" s="11"/>
       <c r="IE24" s="11"/>
     </row>
-    <row r="27" spans="3:4">
+    <row r="27" spans="1:239" ht="14.25">
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
     </row>
-    <row r="28" spans="3:4">
+    <row r="28" spans="1:239" ht="14.25">
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="3:4">
+    <row r="29" spans="1:239" ht="14.25">
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
     </row>
-    <row r="30" spans="3:4">
+    <row r="30" spans="1:239" ht="14.25">
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
     </row>
-    <row r="31" spans="3:4">
+    <row r="31" spans="1:239" ht="14.25">
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="C5:D5">
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="14" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:N5">
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="39" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:BA15">
-    <cfRule type="cellIs" dxfId="0" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="34" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="23" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:P16">
-    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="22" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16:AY16">
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="21" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ16">
-    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:CQ23">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="29" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="17" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:I24">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="16" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:CQ24">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="15" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F8">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J8">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="25" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M8">
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:XFD4">
-    <cfRule type="cellIs" dxfId="0" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="52" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
@@ -56143,7 +56448,7 @@
     <col min="3" max="3" width="18.875" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>1142</v>
       </c>
@@ -56152,15 +56457,15 @@
       </c>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="2" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A2"/>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="3" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A3"/>
       <c r="C3" s="26"/>
     </row>
-    <row r="4" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="4" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56169,7 +56474,7 @@
       </c>
       <c r="C4" s="26"/>
     </row>
-    <row r="5" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="5" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A5" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56178,7 +56483,7 @@
       </c>
       <c r="C5" s="26"/>
     </row>
-    <row r="6" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="6" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56187,13 +56492,13 @@
       </c>
       <c r="C6" s="26"/>
     </row>
-    <row r="7" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="7" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="25" t="s">
         <v>1271</v>
       </c>
       <c r="C7" s="26"/>
     </row>
-    <row r="8" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="8" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="25" t="s">
         <v>1152</v>
       </c>
@@ -56202,10 +56507,10 @@
       </c>
       <c r="C8" s="26"/>
     </row>
-    <row r="9" s="9" customFormat="1" ht="12" customHeight="1" spans="3:3">
+    <row r="9" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="C9" s="26"/>
     </row>
-    <row r="10" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="10" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56214,7 +56519,7 @@
       </c>
       <c r="C10" s="26"/>
     </row>
-    <row r="11" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="11" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56223,7 +56528,7 @@
       </c>
       <c r="C11" s="26"/>
     </row>
-    <row r="12" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="12" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="25" t="s">
         <v>1275</v>
       </c>
@@ -56232,7 +56537,7 @@
       </c>
       <c r="C12" s="26"/>
     </row>
-    <row r="13" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="13" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="25" t="s">
         <v>1152</v>
       </c>
@@ -56241,7 +56546,7 @@
       </c>
       <c r="C13" s="26"/>
     </row>
-    <row r="14" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="14" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="25" t="s">
         <v>1275</v>
       </c>
@@ -56250,7 +56555,7 @@
       </c>
       <c r="C14" s="26"/>
     </row>
-    <row r="15" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="15" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="25" t="s">
         <v>1275</v>
       </c>
@@ -56259,7 +56564,7 @@
       </c>
       <c r="C15" s="26"/>
     </row>
-    <row r="16" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="16" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56268,7 +56573,7 @@
       </c>
       <c r="C16" s="26"/>
     </row>
-    <row r="17" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="17" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="25" t="s">
         <v>1152</v>
       </c>
@@ -56277,7 +56582,7 @@
       </c>
       <c r="C17" s="26"/>
     </row>
-    <row r="18" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="18" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="25" t="s">
         <v>1159</v>
       </c>
@@ -56288,7 +56593,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="19" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="19" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56297,7 +56602,7 @@
       </c>
       <c r="C19" s="26"/>
     </row>
-    <row r="20" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="20" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="25" t="s">
         <v>1152</v>
       </c>
@@ -56306,15 +56611,15 @@
       </c>
       <c r="C20" s="26"/>
     </row>
-    <row r="21" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="21" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A21"/>
       <c r="C21" s="26"/>
     </row>
-    <row r="22" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="22" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A22"/>
       <c r="C22" s="26"/>
     </row>
-    <row r="23" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="23" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56323,7 +56628,7 @@
       </c>
       <c r="C23" s="26"/>
     </row>
-    <row r="24" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="24" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="25" t="s">
         <v>1159</v>
       </c>
@@ -56334,7 +56639,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="25" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="25" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="25" t="s">
         <v>1152</v>
       </c>
@@ -56343,7 +56648,7 @@
       </c>
       <c r="C25" s="26"/>
     </row>
-    <row r="26" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="26" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="25" t="s">
         <v>1159</v>
       </c>
@@ -56354,7 +56659,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="27" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="27" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="25" t="s">
         <v>1152</v>
       </c>
@@ -56363,7 +56668,7 @@
       </c>
       <c r="C27" s="26"/>
     </row>
-    <row r="28" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="28" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56372,17 +56677,17 @@
       </c>
       <c r="C28" s="26"/>
     </row>
-    <row r="29" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="29" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="26"/>
       <c r="B29" s="27"/>
       <c r="C29" s="26"/>
     </row>
-    <row r="30" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="30" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="26"/>
       <c r="B30" s="27"/>
       <c r="C30" s="26"/>
     </row>
-    <row r="31" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="31" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56391,7 +56696,7 @@
       </c>
       <c r="C31" s="26"/>
     </row>
-    <row r="32" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="32" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56400,13 +56705,13 @@
       </c>
       <c r="C32" s="26"/>
     </row>
-    <row r="33" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="33" spans="1:7" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="25" t="s">
         <v>1271</v>
       </c>
       <c r="C33" s="26"/>
     </row>
-    <row r="34" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="34" spans="1:7" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="25" t="s">
         <v>1152</v>
       </c>
@@ -56415,7 +56720,7 @@
       </c>
       <c r="C34" s="26"/>
     </row>
-    <row r="35" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="35" spans="1:7" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56424,13 +56729,13 @@
       </c>
       <c r="C35" s="26"/>
     </row>
-    <row r="36" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="36" spans="1:7" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="25" t="s">
         <v>1271</v>
       </c>
       <c r="C36" s="26"/>
     </row>
-    <row r="37" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="37" spans="1:7" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="25" t="s">
         <v>1152</v>
       </c>
@@ -56439,24 +56744,24 @@
       </c>
       <c r="C37" s="26"/>
     </row>
-    <row r="38" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="38" spans="1:7" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A38"/>
       <c r="C38" s="26"/>
     </row>
-    <row r="39" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="39" spans="1:7" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A39"/>
       <c r="C39" s="26"/>
     </row>
-    <row r="40" customFormat="1" spans="2:3">
+    <row r="40" spans="1:7">
       <c r="B40" s="9"/>
       <c r="C40" s="26"/>
     </row>
-    <row r="41" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="41" spans="1:7" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="42" spans="1:7" s="9" customFormat="1" ht="14.25">
       <c r="A42" s="25" t="s">
         <v>1142</v>
       </c>
@@ -56465,10 +56770,10 @@
       </c>
       <c r="C42" s="26"/>
     </row>
-    <row r="43" s="9" customFormat="1" ht="12" customHeight="1" spans="3:3">
+    <row r="43" spans="1:7" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="C43" s="26"/>
     </row>
-    <row r="44" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="44" spans="1:7" s="9" customFormat="1" ht="14.25">
       <c r="A44" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56477,7 +56782,7 @@
       </c>
       <c r="C44" s="26"/>
     </row>
-    <row r="45" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="45" spans="1:7" s="9" customFormat="1" ht="14.25">
       <c r="A45" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56486,13 +56791,13 @@
       </c>
       <c r="C45" s="26"/>
     </row>
-    <row r="46" customFormat="1" spans="1:4">
+    <row r="46" spans="1:7">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="26"/>
       <c r="D46" s="9"/>
     </row>
-    <row r="47" customFormat="1" ht="14.25" spans="1:7">
+    <row r="47" spans="1:7" ht="14.25">
       <c r="A47" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56505,7 +56810,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="48" customFormat="1" ht="14.25" spans="1:4">
+    <row r="48" spans="1:7" ht="14.25">
       <c r="A48" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56515,13 +56820,13 @@
       <c r="C48" s="26"/>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" customFormat="1" spans="1:4">
+    <row r="49" spans="1:7">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="26"/>
       <c r="D49" s="9"/>
     </row>
-    <row r="50" customFormat="1" ht="14.25" spans="1:4">
+    <row r="50" spans="1:7" ht="14.25">
       <c r="A50" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56531,7 +56836,7 @@
       <c r="C50" s="26"/>
       <c r="D50" s="9"/>
     </row>
-    <row r="51" customFormat="1" ht="14.25" spans="1:4">
+    <row r="51" spans="1:7" ht="14.25">
       <c r="A51" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56541,12 +56846,12 @@
       <c r="C51" s="26"/>
       <c r="D51" s="9"/>
     </row>
-    <row r="52" customFormat="1" spans="2:4">
+    <row r="52" spans="1:7">
       <c r="B52" s="27"/>
       <c r="C52" s="26"/>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" customFormat="1" ht="14.25" spans="1:4">
+    <row r="53" spans="1:7" ht="14.25">
       <c r="A53" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56556,7 +56861,7 @@
       <c r="C53" s="26"/>
       <c r="D53" s="9"/>
     </row>
-    <row r="54" customFormat="1" ht="14.25" spans="1:4">
+    <row r="54" spans="1:7" ht="14.25">
       <c r="A54" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56566,7 +56871,7 @@
       <c r="C54" s="26"/>
       <c r="D54" s="9"/>
     </row>
-    <row r="55" customFormat="1" spans="2:7">
+    <row r="55" spans="1:7">
       <c r="B55" s="27"/>
       <c r="C55" s="26"/>
       <c r="D55" s="9"/>
@@ -56574,7 +56879,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="56" customFormat="1" ht="14.25" spans="1:4">
+    <row r="56" spans="1:7" ht="14.25">
       <c r="A56" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56584,11 +56889,11 @@
       <c r="C56" s="26"/>
       <c r="D56" s="9"/>
     </row>
-    <row r="57" customFormat="1" spans="3:4">
+    <row r="57" spans="1:7">
       <c r="C57" s="26"/>
       <c r="D57" s="9"/>
     </row>
-    <row r="58" customFormat="1" ht="14.25" spans="1:4">
+    <row r="58" spans="1:7" ht="14.25">
       <c r="A58" s="25" t="s">
         <v>1159</v>
       </c>
@@ -56600,12 +56905,12 @@
       </c>
       <c r="D58" s="9"/>
     </row>
-    <row r="59" customFormat="1" spans="2:4">
+    <row r="59" spans="1:7">
       <c r="B59" s="27"/>
       <c r="C59" s="26"/>
       <c r="D59" s="9"/>
     </row>
-    <row r="60" customFormat="1" ht="14.25" spans="1:3">
+    <row r="60" spans="1:7" ht="14.25">
       <c r="A60" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56614,23 +56919,23 @@
       </c>
       <c r="C60" s="26"/>
     </row>
-    <row r="61" customFormat="1" spans="1:3">
+    <row r="61" spans="1:7">
       <c r="A61" s="9"/>
       <c r="C61" s="9"/>
     </row>
-    <row r="62" s="9" customFormat="1" ht="12" customHeight="1" spans="1:2">
+    <row r="62" spans="1:7" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A62"/>
       <c r="B62"/>
     </row>
-    <row r="63" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="63" spans="1:7" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A63"/>
       <c r="C63" s="26"/>
     </row>
-    <row r="64" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="64" spans="1:7" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A64"/>
       <c r="C64" s="26"/>
     </row>
-    <row r="65" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="65" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A65" s="25" t="s">
         <v>1142</v>
       </c>
@@ -56639,7 +56944,7 @@
       </c>
       <c r="C65" s="26"/>
     </row>
-    <row r="66" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="66" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A66" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56648,7 +56953,7 @@
       </c>
       <c r="C66" s="26"/>
     </row>
-    <row r="67" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="67" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A67" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56657,7 +56962,7 @@
       </c>
       <c r="C67" s="26"/>
     </row>
-    <row r="68" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="68" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A68" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56666,20 +56971,20 @@
       </c>
       <c r="C68" s="26"/>
     </row>
-    <row r="69" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="69" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A69" s="25" t="s">
         <v>1271</v>
       </c>
       <c r="C69" s="26"/>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="1:3">
       <c r="B70" s="27"/>
       <c r="C70" s="26"/>
     </row>
-    <row r="71" s="9" customFormat="1" ht="12" customHeight="1" spans="3:3">
+    <row r="71" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="C71" s="26"/>
     </row>
-    <row r="72" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="72" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A72" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56688,7 +56993,7 @@
       </c>
       <c r="C72" s="26"/>
     </row>
-    <row r="73" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="73" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A73" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56697,7 +57002,7 @@
       </c>
       <c r="C73" s="26"/>
     </row>
-    <row r="74" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="74" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A74" s="25" t="s">
         <v>1275</v>
       </c>
@@ -56706,7 +57011,7 @@
       </c>
       <c r="C74" s="26"/>
     </row>
-    <row r="75" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="75" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A75" s="25" t="s">
         <v>1275</v>
       </c>
@@ -56715,7 +57020,7 @@
       </c>
       <c r="C75" s="26"/>
     </row>
-    <row r="76" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="76" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A76" s="25" t="s">
         <v>1275</v>
       </c>
@@ -56724,7 +57029,7 @@
       </c>
       <c r="C76" s="26"/>
     </row>
-    <row r="77" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="77" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A77" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56733,7 +57038,7 @@
       </c>
       <c r="C77" s="26"/>
     </row>
-    <row r="78" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="78" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A78" s="25" t="s">
         <v>1159</v>
       </c>
@@ -56744,7 +57049,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="79" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="79" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A79" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56753,16 +57058,16 @@
       </c>
       <c r="C79" s="26"/>
     </row>
-    <row r="80" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="80" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A80"/>
       <c r="B80" s="28"/>
       <c r="C80" s="26"/>
     </row>
-    <row r="81" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="81" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A81"/>
       <c r="C81" s="26"/>
     </row>
-    <row r="82" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="82" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A82" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56771,7 +57076,7 @@
       </c>
       <c r="C82" s="26"/>
     </row>
-    <row r="83" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="83" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A83" s="25" t="s">
         <v>1159</v>
       </c>
@@ -56782,12 +57087,12 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="84" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="84" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A84" s="27"/>
       <c r="B84" s="27"/>
       <c r="C84" s="26"/>
     </row>
-    <row r="85" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="85" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A85" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56796,7 +57101,7 @@
       </c>
       <c r="C85" s="26"/>
     </row>
-    <row r="86" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="86" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A86" s="25" t="s">
         <v>1159</v>
       </c>
@@ -56807,7 +57112,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="87" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="87" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A87" s="25" t="s">
         <v>1152</v>
       </c>
@@ -56816,7 +57121,7 @@
       </c>
       <c r="C87" s="26"/>
     </row>
-    <row r="88" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="88" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A88" s="25" t="s">
         <v>1159</v>
       </c>
@@ -56827,12 +57132,12 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="89" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="89" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A89"/>
       <c r="B89" s="27"/>
       <c r="C89" s="26"/>
     </row>
-    <row r="90" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="90" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A90" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56841,12 +57146,12 @@
       </c>
       <c r="C90" s="26"/>
     </row>
-    <row r="91" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="91" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A91"/>
       <c r="B91" s="27"/>
       <c r="C91" s="26"/>
     </row>
-    <row r="92" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="92" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A92" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56855,7 +57160,7 @@
       </c>
       <c r="C92" s="26"/>
     </row>
-    <row r="93" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="93" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A93" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56864,13 +57169,13 @@
       </c>
       <c r="C93" s="26"/>
     </row>
-    <row r="94" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="94" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A94" s="25" t="s">
         <v>1271</v>
       </c>
       <c r="C94" s="26"/>
     </row>
-    <row r="95" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="95" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A95" s="25" t="s">
         <v>1152</v>
       </c>
@@ -56879,7 +57184,7 @@
       </c>
       <c r="C95" s="26"/>
     </row>
-    <row r="96" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="96" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A96" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56888,13 +57193,13 @@
       </c>
       <c r="C96" s="26"/>
     </row>
-    <row r="97" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="97" spans="1:10" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A97" s="25" t="s">
         <v>1271</v>
       </c>
       <c r="C97" s="26"/>
     </row>
-    <row r="98" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="98" spans="1:10" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A98" s="25" t="s">
         <v>1152</v>
       </c>
@@ -56903,16 +57208,16 @@
       </c>
       <c r="C98" s="26"/>
     </row>
-    <row r="99" spans="2:3">
+    <row r="99" spans="1:10">
       <c r="B99" s="9"/>
       <c r="C99" s="26"/>
     </row>
-    <row r="102" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="102" spans="1:10" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
     </row>
-    <row r="103" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="103" spans="1:10" s="9" customFormat="1" ht="14.25">
       <c r="A103" s="25" t="s">
         <v>1142</v>
       </c>
@@ -56921,13 +57226,13 @@
       </c>
       <c r="C103" s="26"/>
     </row>
-    <row r="104" s="9" customFormat="1" ht="12" customHeight="1" spans="3:10">
+    <row r="104" spans="1:10" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="C104" s="26"/>
       <c r="J104" s="9" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="105" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="105" spans="1:10" s="9" customFormat="1" ht="14.25">
       <c r="A105" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56936,7 +57241,7 @@
       </c>
       <c r="C105" s="26"/>
     </row>
-    <row r="106" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="106" spans="1:10" s="9" customFormat="1" ht="14.25">
       <c r="A106" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56945,13 +57250,13 @@
       </c>
       <c r="C106" s="26"/>
     </row>
-    <row r="107" customFormat="1" spans="1:4">
+    <row r="107" spans="1:10">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="26"/>
       <c r="D107" s="9"/>
     </row>
-    <row r="108" customFormat="1" ht="14.25" spans="1:7">
+    <row r="108" spans="1:10" ht="14.25">
       <c r="A108" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56964,7 +57269,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="109" customFormat="1" ht="14.25" spans="1:4">
+    <row r="109" spans="1:10" ht="14.25">
       <c r="A109" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56974,13 +57279,13 @@
       <c r="C109" s="26"/>
       <c r="D109" s="9"/>
     </row>
-    <row r="110" customFormat="1" spans="1:4">
+    <row r="110" spans="1:10">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="26"/>
       <c r="D110" s="9"/>
     </row>
-    <row r="111" customFormat="1" ht="14.25" spans="1:4">
+    <row r="111" spans="1:10" ht="14.25">
       <c r="A111" s="25" t="s">
         <v>1144</v>
       </c>
@@ -56990,7 +57295,7 @@
       <c r="C111" s="26"/>
       <c r="D111" s="9"/>
     </row>
-    <row r="112" customFormat="1" ht="14.25" spans="1:4">
+    <row r="112" spans="1:10" ht="14.25">
       <c r="A112" s="25" t="s">
         <v>1144</v>
       </c>
@@ -57000,12 +57305,12 @@
       <c r="C112" s="26"/>
       <c r="D112" s="9"/>
     </row>
-    <row r="113" customFormat="1" spans="2:4">
+    <row r="113" spans="1:7">
       <c r="B113" s="27"/>
       <c r="C113" s="26"/>
       <c r="D113" s="9"/>
     </row>
-    <row r="114" customFormat="1" ht="14.25" spans="1:4">
+    <row r="114" spans="1:7" ht="14.25">
       <c r="A114" s="25" t="s">
         <v>1144</v>
       </c>
@@ -57015,7 +57320,7 @@
       <c r="C114" s="26"/>
       <c r="D114" s="9"/>
     </row>
-    <row r="115" customFormat="1" ht="14.25" spans="1:4">
+    <row r="115" spans="1:7" ht="14.25">
       <c r="A115" s="25" t="s">
         <v>1144</v>
       </c>
@@ -57025,7 +57330,7 @@
       <c r="C115" s="26"/>
       <c r="D115" s="9"/>
     </row>
-    <row r="116" customFormat="1" spans="2:7">
+    <row r="116" spans="1:7">
       <c r="B116" s="27"/>
       <c r="C116" s="26"/>
       <c r="D116" s="9"/>
@@ -57033,7 +57338,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="117" customFormat="1" ht="14.25" spans="1:4">
+    <row r="117" spans="1:7" ht="14.25">
       <c r="A117" s="25" t="s">
         <v>1144</v>
       </c>
@@ -57043,11 +57348,11 @@
       <c r="C117" s="26"/>
       <c r="D117" s="9"/>
     </row>
-    <row r="118" customFormat="1" spans="3:4">
+    <row r="118" spans="1:7">
       <c r="C118" s="26"/>
       <c r="D118" s="9"/>
     </row>
-    <row r="119" customFormat="1" ht="14.25" spans="1:4">
+    <row r="119" spans="1:7" ht="14.25">
       <c r="A119" s="25" t="s">
         <v>1159</v>
       </c>
@@ -57059,12 +57364,12 @@
       </c>
       <c r="D119" s="9"/>
     </row>
-    <row r="120" customFormat="1" spans="2:4">
+    <row r="120" spans="1:7">
       <c r="B120" s="27"/>
       <c r="C120" s="26"/>
       <c r="D120" s="9"/>
     </row>
-    <row r="121" customFormat="1" ht="14.25" spans="1:3">
+    <row r="121" spans="1:7" ht="14.25">
       <c r="A121" s="25" t="s">
         <v>1144</v>
       </c>
@@ -57073,15 +57378,15 @@
       </c>
       <c r="C121" s="26"/>
     </row>
-    <row r="122" customFormat="1" spans="1:3">
+    <row r="122" spans="1:7">
       <c r="A122" s="9"/>
       <c r="C122" s="9"/>
     </row>
-    <row r="123" s="9" customFormat="1" ht="12" customHeight="1" spans="1:2">
+    <row r="123" spans="1:7" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A123"/>
       <c r="B123"/>
     </row>
-    <row r="124" ht="14.25" spans="1:2">
+    <row r="124" spans="1:7" ht="14.25">
       <c r="A124" s="25" t="s">
         <v>1142</v>
       </c>
@@ -57089,7 +57394,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="125" ht="14.25" spans="1:2">
+    <row r="125" spans="1:7" ht="14.25">
       <c r="A125" s="25" t="s">
         <v>1144</v>
       </c>
@@ -57097,7 +57402,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="126" ht="14.25" spans="1:2">
+    <row r="126" spans="1:7" ht="14.25">
       <c r="A126" s="25" t="s">
         <v>1144</v>
       </c>
@@ -57105,25 +57410,24 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="127" ht="14.25" spans="1:2">
+    <row r="127" spans="1:7" ht="14.25">
       <c r="A127" s="25" t="s">
         <v>1271</v>
       </c>
       <c r="B127" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C78" r:id="rId1" display="mht@shequchina.cn"/>
-    <hyperlink ref="C18" r:id="rId1" display="mht@shequchina.cn"/>
+    <hyperlink ref="C78" r:id="rId1"/>
+    <hyperlink ref="C18" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IE44"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -57147,7 +57451,7 @@
     <col min="74" max="74" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="2:103">
+    <row r="1" spans="1:103" s="9" customFormat="1">
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -57184,8 +57488,7 @@
       <c r="AI1" s="11"/>
       <c r="CY1"/>
     </row>
-    <row r="2" customFormat="1"/>
-    <row r="3" s="9" customFormat="1" ht="14.25" spans="1:35">
+    <row r="3" spans="1:103" s="9" customFormat="1" ht="14.25">
       <c r="A3" s="12" t="s">
         <v>59</v>
       </c>
@@ -57226,13 +57529,13 @@
       <c r="AH3" s="11"/>
       <c r="AI3" s="11"/>
     </row>
-    <row r="4" s="9" customFormat="1" ht="12" spans="1:2">
+    <row r="4" spans="1:103" s="9" customFormat="1" ht="12">
       <c r="A4" s="14"/>
       <c r="B4" s="10" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="2:14">
+    <row r="5" spans="1:103">
       <c r="B5" s="15" t="s">
         <v>63</v>
       </c>
@@ -57273,15 +57576,15 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="2:14">
+    <row r="6" spans="1:103">
       <c r="B6" s="17" t="s">
         <v>1171</v>
       </c>
       <c r="C6" s="17">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="D6" s="17">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>83</v>
@@ -57314,15 +57617,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="2:14">
+    <row r="7" spans="1:103">
       <c r="B7" s="17" t="s">
         <v>1176</v>
       </c>
       <c r="C7" s="17">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="D7" s="17">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>83</v>
@@ -57355,15 +57658,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="2:14">
+    <row r="8" spans="1:103">
       <c r="B8" s="17" t="s">
         <v>1180</v>
       </c>
       <c r="C8" s="17">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="D8" s="17">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>83</v>
@@ -57396,15 +57699,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="2:14">
+    <row r="9" spans="1:103">
       <c r="B9" s="17" t="s">
         <v>1306</v>
       </c>
       <c r="C9" s="17">
-        <v>43262.4198148148</v>
+        <v>43262.419814814799</v>
       </c>
       <c r="D9" s="17">
-        <v>43262.4198148148</v>
+        <v>43262.419814814799</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>83</v>
@@ -57437,15 +57740,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="2:14">
+    <row r="10" spans="1:103">
       <c r="B10" s="17" t="s">
         <v>1307</v>
       </c>
       <c r="C10" s="17">
-        <v>43262.4198148148</v>
+        <v>43262.419814814799</v>
       </c>
       <c r="D10" s="17">
-        <v>43262.4198148148</v>
+        <v>43262.419814814799</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>83</v>
@@ -57478,15 +57781,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="2:14">
+    <row r="11" spans="1:103">
       <c r="B11" s="17" t="s">
         <v>1308</v>
       </c>
       <c r="C11" s="17">
-        <v>43262.4198148148</v>
+        <v>43262.419814814799</v>
       </c>
       <c r="D11" s="17">
-        <v>43262.4198148148</v>
+        <v>43262.419814814799</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>83</v>
@@ -57519,11 +57822,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" customFormat="1"/>
-    <row r="13" customFormat="1"/>
-    <row r="14" customFormat="1"/>
-    <row r="15" customFormat="1"/>
-    <row r="16" customFormat="1" ht="14.25" spans="1:2">
+    <row r="16" spans="1:103" ht="14.25">
       <c r="A16" s="12" t="s">
         <v>59</v>
       </c>
@@ -57531,13 +57830,13 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:2">
+    <row r="17" spans="1:239">
       <c r="A17" s="14"/>
       <c r="B17" s="10" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="2:54">
+    <row r="18" spans="1:239" ht="14.25">
       <c r="B18" s="15" t="s">
         <v>63</v>
       </c>
@@ -57694,16 +57993,16 @@
       <c r="BA18" s="16"/>
       <c r="BB18" s="22"/>
     </row>
-    <row r="19" customFormat="1" spans="1:239">
+    <row r="19" spans="1:239" ht="14.25">
       <c r="A19" s="11"/>
       <c r="B19" s="18" t="s">
         <v>1175</v>
       </c>
       <c r="C19" s="17">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="D19" s="17">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>83</v>
@@ -58036,7 +58335,7 @@
       <c r="ID19" s="11"/>
       <c r="IE19" s="11"/>
     </row>
-    <row r="20" customFormat="1" spans="1:239">
+    <row r="20" spans="1:239" ht="14.25">
       <c r="A20" s="11"/>
       <c r="B20" s="18" t="s">
         <v>1172</v>
@@ -58378,17 +58677,15 @@
       <c r="ID20" s="11"/>
       <c r="IE20" s="11"/>
     </row>
-    <row r="21" customFormat="1"/>
-    <row r="22" customFormat="1"/>
-    <row r="23" customFormat="1" spans="3:4">
+    <row r="23" spans="1:239" ht="14.25">
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
     </row>
-    <row r="24" customFormat="1" spans="3:4">
+    <row r="24" spans="1:239" ht="14.25">
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
     </row>
-    <row r="25" customFormat="1" ht="14.25" spans="1:2">
+    <row r="25" spans="1:239" ht="14.25">
       <c r="A25" s="12" t="s">
         <v>59</v>
       </c>
@@ -58396,13 +58693,13 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="1:2">
+    <row r="26" spans="1:239">
       <c r="A26" s="14"/>
       <c r="B26" s="10" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="27" spans="2:95">
+    <row r="27" spans="1:239">
       <c r="B27" s="15" t="s">
         <v>63</v>
       </c>
@@ -58692,10 +58989,10 @@
         <v>1266</v>
       </c>
       <c r="C28" s="17">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="D28" s="17">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>83</v>
@@ -59121,10 +59418,10 @@
         <v>1309</v>
       </c>
       <c r="C29" s="17">
-        <v>43262.4198148148</v>
+        <v>43262.419814814799</v>
       </c>
       <c r="D29" s="17">
-        <v>43262.4198148148</v>
+        <v>43262.419814814799</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>83</v>
@@ -59544,9 +59841,7 @@
       <c r="ID29" s="11"/>
       <c r="IE29" s="11"/>
     </row>
-    <row r="30" customFormat="1"/>
-    <row r="31" customFormat="1"/>
-    <row r="32" ht="14.25" spans="1:4">
+    <row r="32" spans="1:239" ht="14.25">
       <c r="A32" s="12" t="s">
         <v>59</v>
       </c>
@@ -59556,7 +59851,7 @@
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:13" ht="14.25">
       <c r="A33" s="14"/>
       <c r="B33" s="10" t="s">
         <v>1311</v>
@@ -59564,7 +59859,7 @@
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="1:13">
       <c r="B34" s="15" t="s">
         <v>63</v>
       </c>
@@ -59596,12 +59891,12 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="1:13">
       <c r="B35" s="18">
         <v>1</v>
       </c>
       <c r="C35" s="17">
-        <v>43158.4153009259</v>
+        <v>43158.415300925903</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>1321</v>
@@ -59628,12 +59923,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="1:13">
       <c r="B36" s="18">
         <v>2</v>
       </c>
       <c r="C36" s="17">
-        <v>43159.3828819444</v>
+        <v>43159.382881944402</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>1321</v>
@@ -59660,17 +59955,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="1:13" ht="14.25">
       <c r="C37" s="19"/>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="1:13" ht="14.25">
       <c r="C38" s="19"/>
     </row>
-    <row r="39" spans="3:4">
+    <row r="39" spans="1:13" ht="14.25">
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
     </row>
-    <row r="40" ht="14.25" spans="1:4">
+    <row r="40" spans="1:13" ht="14.25">
       <c r="A40" s="12" t="s">
         <v>59</v>
       </c>
@@ -59680,7 +59975,7 @@
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:13" ht="14.25">
       <c r="A41" s="14"/>
       <c r="B41" s="10" t="s">
         <v>1326</v>
@@ -59688,7 +59983,7 @@
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="1:13">
       <c r="B42" s="15" t="s">
         <v>63</v>
       </c>
@@ -59726,15 +60021,15 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="1:13">
       <c r="B43" s="18" t="s">
         <v>1331</v>
       </c>
       <c r="C43" s="17">
-        <v>43263.2431134259</v>
+        <v>43263.243113425902</v>
       </c>
       <c r="D43" s="17">
-        <v>43263.2431134259</v>
+        <v>43263.243113425902</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>83</v>
@@ -59743,7 +60038,7 @@
         <v>84</v>
       </c>
       <c r="G43" s="17">
-        <v>43263.2431134259</v>
+        <v>43263.243113425902</v>
       </c>
       <c r="H43" s="18" t="s">
         <v>1332</v>
@@ -59764,15 +60059,15 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="1:13">
       <c r="B44" s="18" t="s">
         <v>1335</v>
       </c>
       <c r="C44" s="17">
-        <v>43263.2436574074</v>
+        <v>43263.243657407402</v>
       </c>
       <c r="D44" s="17">
-        <v>43263.2436574074</v>
+        <v>43263.243657407402</v>
       </c>
       <c r="E44" s="21" t="s">
         <v>83</v>
@@ -59781,7 +60076,7 @@
         <v>84</v>
       </c>
       <c r="G44" s="17">
-        <v>43263.2436574074</v>
+        <v>43263.243657407402</v>
       </c>
       <c r="H44" s="18" t="s">
         <v>1336</v>
@@ -59803,158 +60098,159 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="C5:D5">
-    <cfRule type="cellIs" dxfId="0" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:N5">
-    <cfRule type="cellIs" dxfId="0" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="46" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:BA18">
-    <cfRule type="cellIs" dxfId="0" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="45" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ19">
-    <cfRule type="cellIs" dxfId="0" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="37" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ20">
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="36" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:CQ27">
-    <cfRule type="cellIs" dxfId="0" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="44" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:K34">
-    <cfRule type="cellIs" dxfId="0" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:M42">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20">
-    <cfRule type="cellIs" dxfId="0" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="40" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="cellIs" dxfId="0" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="35" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:B36">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B44">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:C36">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F11">
-    <cfRule type="cellIs" dxfId="0" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="43" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F36">
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="26" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G29">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="27" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:G36">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="25" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:G44">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J11">
-    <cfRule type="cellIs" dxfId="0" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:J36">
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="24" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:K20">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:K36">
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="28" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M11">
-    <cfRule type="cellIs" dxfId="0" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="42" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:XFD4">
-    <cfRule type="cellIs" dxfId="0" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="47" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:D20">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:J20 L19:P20">
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="39" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19:AY20">
-    <cfRule type="cellIs" dxfId="0" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="38" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:D29">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:I29">
-    <cfRule type="cellIs" dxfId="0" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="34" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:CQ29">
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="33" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:D44">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59963,21 +60259,19 @@
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:H28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
@@ -60012,7 +60306,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:8">
       <c r="B5" s="8" t="s">
         <v>1342</v>
       </c>
@@ -60029,17 +60323,17 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:8">
       <c r="B6" s="8" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:8">
       <c r="B7" s="8" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:8">
       <c r="B8" s="8" t="s">
         <v>1349</v>
       </c>
@@ -60053,38 +60347,38 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:8">
       <c r="B9" s="8" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:8">
       <c r="B10" s="8" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:8">
       <c r="B11" s="8" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="2:8">
       <c r="B12" s="8" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="2:8">
       <c r="B13" s="8" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:8">
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="2:8">
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:8">
       <c r="B16" s="8"/>
     </row>
     <row r="17" spans="2:2">
@@ -60124,8 +60418,8 @@
       <c r="B28" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>